--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2359175.584936817</v>
+        <v>2358244.468054855</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1463760.632587926</v>
+        <v>1463760.632587927</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>152.2111482390281</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V2" t="n">
-        <v>189.4883835814583</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.0602290075064</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>94.49004112621036</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>93.52529077486081</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.9944454913849</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>193.5184989448065</v>
       </c>
       <c r="G5" t="n">
-        <v>229.9609751381512</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>52.8703870779016</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.2553380472942703</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>79.08012240725701</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>89.73163134740385</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>47.57140962188896</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>235.4551847859273</v>
+        <v>32.9937807002341</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>126.6143120166835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>301.1847515012378</v>
       </c>
       <c r="D11" t="n">
-        <v>9.43589166174112</v>
+        <v>293.527722514638</v>
       </c>
       <c r="E11" t="n">
-        <v>310.49869465376</v>
+        <v>64.02905717631866</v>
       </c>
       <c r="F11" t="n">
         <v>324.6664991044611</v>
@@ -1390,7 +1390,7 @@
         <v>229.7887348817841</v>
       </c>
       <c r="I11" t="n">
-        <v>37.62219337545636</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.12647397058123</v>
+        <v>70.12647397058124</v>
       </c>
       <c r="T11" t="n">
         <v>131.9266424199394</v>
@@ -1469,7 +1469,7 @@
         <v>85.90351187587939</v>
       </c>
       <c r="I12" t="n">
-        <v>43.50700391765498</v>
+        <v>43.50700391765499</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>13.96455288461014</v>
+        <v>13.96455288461016</v>
       </c>
       <c r="S12" t="n">
-        <v>130.6754711136024</v>
+        <v>130.6754711136025</v>
       </c>
       <c r="T12" t="n">
         <v>174.5833901224975</v>
@@ -1536,7 +1536,7 @@
         <v>66.01778698564948</v>
       </c>
       <c r="E13" t="n">
-        <v>65.94422903852858</v>
+        <v>65.94422903852859</v>
       </c>
       <c r="F13" t="n">
         <v>67.69368045829586</v>
@@ -1548,7 +1548,7 @@
         <v>64.6986538388183</v>
       </c>
       <c r="I13" t="n">
-        <v>39.7601977117395</v>
+        <v>39.76019771173951</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.70562944181142</v>
+        <v>28.70562944181144</v>
       </c>
       <c r="S13" t="n">
         <v>110.4431961680647</v>
@@ -1584,7 +1584,7 @@
         <v>144.7424625974466</v>
       </c>
       <c r="U13" t="n">
-        <v>194.5182547694213</v>
+        <v>194.5182547694211</v>
       </c>
       <c r="V13" t="n">
         <v>175.2605567465231</v>
@@ -1612,7 +1612,7 @@
         <v>301.1847515012378</v>
       </c>
       <c r="D14" t="n">
-        <v>9.43589166174112</v>
+        <v>293.527722514638</v>
       </c>
       <c r="E14" t="n">
         <v>310.49869465376</v>
@@ -1627,7 +1627,7 @@
         <v>229.7887348817841</v>
       </c>
       <c r="I14" t="n">
-        <v>37.62219337545636</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.12647397058123</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.9266424199394</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>165.1128156906614</v>
+        <v>120.6962946037402</v>
       </c>
       <c r="V14" t="n">
         <v>250.6267462226559</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>13.96455288461014</v>
+        <v>13.96455288461016</v>
       </c>
       <c r="S15" t="n">
-        <v>130.6754711136024</v>
+        <v>130.6754711136025</v>
       </c>
       <c r="T15" t="n">
         <v>174.5833901224975</v>
@@ -1779,13 +1779,13 @@
         <v>67.69368045829586</v>
       </c>
       <c r="G16" t="n">
-        <v>78.38136005969757</v>
+        <v>78.38136005969761</v>
       </c>
       <c r="H16" t="n">
-        <v>64.6986538388183</v>
+        <v>64.69865383881832</v>
       </c>
       <c r="I16" t="n">
-        <v>39.7601977117395</v>
+        <v>39.76019771173951</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.70562944181142</v>
+        <v>28.70562944181112</v>
       </c>
       <c r="S16" t="n">
         <v>110.4431961680647</v>
@@ -1861,10 +1861,10 @@
         <v>320.6797379982028</v>
       </c>
       <c r="H17" t="n">
-        <v>229.7887348817841</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>37.62219337545636</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>53.4455713749241</v>
       </c>
       <c r="T17" t="n">
         <v>131.9266424199394</v>
@@ -1903,7 +1903,7 @@
         <v>165.1128156906614</v>
       </c>
       <c r="V17" t="n">
-        <v>36.66138934034</v>
+        <v>250.6267462226559</v>
       </c>
       <c r="W17" t="n">
         <v>279.2300497005345</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>13.96455288461014</v>
+        <v>13.96455288461016</v>
       </c>
       <c r="S18" t="n">
-        <v>130.6754711136024</v>
+        <v>130.6754711136025</v>
       </c>
       <c r="T18" t="n">
         <v>174.5833901224975</v>
@@ -2022,7 +2022,7 @@
         <v>64.6986538388183</v>
       </c>
       <c r="I19" t="n">
-        <v>39.76019771173949</v>
+        <v>39.76019771173951</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.70562944181135</v>
+        <v>28.70562944181144</v>
       </c>
       <c r="S19" t="n">
-        <v>110.4431961680647</v>
+        <v>110.4431961680649</v>
       </c>
       <c r="T19" t="n">
         <v>144.7424625974466</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>37.62219337545636</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.12647397058123</v>
+        <v>70.12647397058124</v>
       </c>
       <c r="T20" t="n">
         <v>131.9266424199394</v>
@@ -2140,7 +2140,7 @@
         <v>165.1128156906614</v>
       </c>
       <c r="V20" t="n">
-        <v>196.3236502515432</v>
+        <v>233.9458436269989</v>
       </c>
       <c r="W20" t="n">
         <v>279.2300497005345</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>13.96455288461014</v>
+        <v>13.96455288461015</v>
       </c>
       <c r="S21" t="n">
         <v>130.6754711136024</v>
@@ -2256,7 +2256,7 @@
         <v>78.38136005969761</v>
       </c>
       <c r="H22" t="n">
-        <v>64.6986538388183</v>
+        <v>64.69865383881832</v>
       </c>
       <c r="I22" t="n">
         <v>39.7601977117395</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.70562944181142</v>
+        <v>28.70562944181143</v>
       </c>
       <c r="S22" t="n">
         <v>110.4431961680647</v>
@@ -2335,10 +2335,10 @@
         <v>320.6797379982028</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>229.7887348817841</v>
       </c>
       <c r="I23" t="n">
-        <v>37.62219337545636</v>
+        <v>37.62219337545637</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.12647397058123</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>131.9266424199394</v>
@@ -2377,13 +2377,13 @@
         <v>165.1128156906614</v>
       </c>
       <c r="V23" t="n">
-        <v>250.6267462226559</v>
+        <v>36.66138934033955</v>
       </c>
       <c r="W23" t="n">
         <v>279.2300497005345</v>
       </c>
       <c r="X23" t="n">
-        <v>243.1959880642999</v>
+        <v>297.4990840354128</v>
       </c>
       <c r="Y23" t="n">
         <v>304.466807007744</v>
@@ -2493,7 +2493,7 @@
         <v>78.38136005969761</v>
       </c>
       <c r="H25" t="n">
-        <v>64.6986538388183</v>
+        <v>64.69865383881832</v>
       </c>
       <c r="I25" t="n">
         <v>39.7601977117395</v>
@@ -2566,7 +2566,7 @@
         <v>310.49869465376</v>
       </c>
       <c r="F26" t="n">
-        <v>40.5746682515643</v>
+        <v>324.6664991044611</v>
       </c>
       <c r="G26" t="n">
         <v>320.6797379982028</v>
@@ -2575,7 +2575,7 @@
         <v>229.7887348817841</v>
       </c>
       <c r="I26" t="n">
-        <v>37.62219337545636</v>
+        <v>37.62219337545637</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.12647397058123</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>131.9266424199394</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>165.1128156906614</v>
+        <v>83.07410122828408</v>
       </c>
       <c r="V26" t="n">
         <v>250.6267462226559</v>
@@ -2721,7 +2721,7 @@
         <v>66.01778698564948</v>
       </c>
       <c r="E28" t="n">
-        <v>65.94422903852858</v>
+        <v>65.94422903852859</v>
       </c>
       <c r="F28" t="n">
         <v>67.69368045829586</v>
@@ -2730,7 +2730,7 @@
         <v>78.38136005969761</v>
       </c>
       <c r="H28" t="n">
-        <v>64.6986538388183</v>
+        <v>64.69865383881832</v>
       </c>
       <c r="I28" t="n">
         <v>39.7601977117395</v>
@@ -2806,7 +2806,7 @@
         <v>324.6664991044611</v>
       </c>
       <c r="G29" t="n">
-        <v>36.58790714530599</v>
+        <v>320.6797379982028</v>
       </c>
       <c r="H29" t="n">
         <v>229.7887348817841</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.12647397058123</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>131.9266424199394</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>165.1128156906614</v>
+        <v>83.07410122828408</v>
       </c>
       <c r="V29" t="n">
         <v>250.6267462226559</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.29694352352735</v>
+        <v>95.29694352352733</v>
       </c>
       <c r="C31" t="n">
-        <v>80.44407177380975</v>
+        <v>80.44407177380974</v>
       </c>
       <c r="D31" t="n">
-        <v>66.01778698564948</v>
+        <v>66.01778698564947</v>
       </c>
       <c r="E31" t="n">
-        <v>65.94422903852859</v>
+        <v>65.94422903852858</v>
       </c>
       <c r="F31" t="n">
-        <v>67.69368045829586</v>
+        <v>67.69368045829584</v>
       </c>
       <c r="G31" t="n">
-        <v>78.38136005969761</v>
+        <v>78.3813600596976</v>
       </c>
       <c r="H31" t="n">
-        <v>64.6986538388183</v>
+        <v>64.69865383881829</v>
       </c>
       <c r="I31" t="n">
-        <v>39.76019771173946</v>
+        <v>39.76019771173949</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.70562944181142</v>
+        <v>28.70562944181141</v>
       </c>
       <c r="S31" t="n">
         <v>110.4431961680647</v>
       </c>
       <c r="T31" t="n">
-        <v>144.7424625974466</v>
+        <v>144.7424625974465</v>
       </c>
       <c r="U31" t="n">
-        <v>194.5182547694213</v>
+        <v>194.5182547694217</v>
       </c>
       <c r="V31" t="n">
         <v>175.2605567465231</v>
@@ -3046,10 +3046,10 @@
         <v>320.6797379982028</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>229.7887348817841</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>37.62219337545638</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.12647397058124</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>131.9266424199394</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>165.1128156906614</v>
+        <v>83.07410122828408</v>
       </c>
       <c r="V32" t="n">
         <v>250.6267462226559</v>
@@ -3094,7 +3094,7 @@
         <v>279.2300497005345</v>
       </c>
       <c r="X32" t="n">
-        <v>280.8181814397561</v>
+        <v>297.4990840354128</v>
       </c>
       <c r="Y32" t="n">
         <v>304.466807007744</v>
@@ -3207,7 +3207,7 @@
         <v>64.69865383881832</v>
       </c>
       <c r="I34" t="n">
-        <v>39.76019771173951</v>
+        <v>39.76019771173952</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.70562944181144</v>
+        <v>28.70562944181157</v>
       </c>
       <c r="S34" t="n">
-        <v>110.4431961680645</v>
+        <v>110.4431961680647</v>
       </c>
       <c r="T34" t="n">
         <v>144.7424625974466</v>
       </c>
       <c r="U34" t="n">
-        <v>194.5182547694213</v>
+        <v>194.5182547694211</v>
       </c>
       <c r="V34" t="n">
         <v>175.2605567465231</v>
@@ -3280,13 +3280,13 @@
         <v>324.6664991044611</v>
       </c>
       <c r="G35" t="n">
-        <v>36.58790714530599</v>
+        <v>276.2632169112827</v>
       </c>
       <c r="H35" t="n">
         <v>229.7887348817841</v>
       </c>
       <c r="I35" t="n">
-        <v>37.62219337545638</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.12647397058124</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>131.9266424199394</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>165.1128156906614</v>
@@ -3441,7 +3441,7 @@
         <v>78.38136005969763</v>
       </c>
       <c r="H37" t="n">
-        <v>64.69865383881832</v>
+        <v>64.69865383881833</v>
       </c>
       <c r="I37" t="n">
         <v>39.76019771173952</v>
@@ -3511,19 +3511,19 @@
         <v>293.527722514638</v>
       </c>
       <c r="E38" t="n">
-        <v>256.1955986826473</v>
+        <v>310.49869465376</v>
       </c>
       <c r="F38" t="n">
         <v>324.6664991044611</v>
       </c>
       <c r="G38" t="n">
-        <v>320.6797379982028</v>
+        <v>303.9988354025465</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>37.62219337545638</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>95.87684043417846</v>
+        <v>321.2557445249267</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3757,10 +3757,10 @@
         <v>408.7387329790637</v>
       </c>
       <c r="H41" t="n">
-        <v>317.8477298626451</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>125.6811883563173</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>19.24582855227625</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9856374008003</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1718106715223</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7576488196792</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>127.8191926926004</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>116.7646244226723</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>198.5021911489256</v>
       </c>
       <c r="T43" t="n">
-        <v>232.8014575783075</v>
+        <v>132.4411070233005</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5772497502822</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>122.5198067118151</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>122.7226964644864</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>95.01578355256076</v>
       </c>
       <c r="G44" t="n">
-        <v>408.7387329790637</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>317.8477298626451</v>
       </c>
       <c r="I44" t="n">
-        <v>125.6811883563173</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>19.24582855227625</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>158.1854689514421</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9856374008003</v>
       </c>
       <c r="U44" t="n">
         <v>253.1718106715223</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>152.7576488196792</v>
+        <v>76.33133589818428</v>
       </c>
       <c r="I46" t="n">
-        <v>127.8191926926004</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.80159417813933</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>116.7646244226723</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>198.5021911489256</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.644824697294322</v>
+        <v>232.8014575783075</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5772497502822</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.37326391226304</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="C2" t="n">
-        <v>40.37326391226304</v>
+        <v>417.283360296407</v>
       </c>
       <c r="D2" t="n">
-        <v>40.37326391226304</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="E2" t="n">
-        <v>40.37326391226304</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="F2" t="n">
-        <v>27.51922948264486</v>
+        <v>172.145512595929</v>
       </c>
       <c r="G2" t="n">
         <v>18.39687801105209</v>
@@ -4333,49 +4333,49 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K2" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L2" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M2" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N2" t="n">
-        <v>390.7080163066498</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O2" t="n">
-        <v>618.3693816934194</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P2" t="n">
-        <v>846.030747080189</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T2" t="n">
-        <v>696.3432981120213</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U2" t="n">
-        <v>696.3432981120213</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="V2" t="n">
-        <v>504.9408904539827</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="W2" t="n">
-        <v>272.6570771831229</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="X2" t="n">
-        <v>272.6570771831229</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.37326391226304</v>
+        <v>649.5671735672668</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>817.762861151083</v>
+        <v>169.0511084509599</v>
       </c>
       <c r="C3" t="n">
-        <v>667.1086307111752</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D3" t="n">
-        <v>537.0196633326556</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E3" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F3" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G3" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H3" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I3" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L3" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M3" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N3" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O3" t="n">
-        <v>473.7196087845913</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P3" t="n">
         <v>692.182535165835</v>
@@ -4436,25 +4436,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S3" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T3" t="n">
-        <v>919.8439005526046</v>
+        <v>689.4687374664023</v>
       </c>
       <c r="U3" t="n">
-        <v>919.8439005526046</v>
+        <v>689.4687374664023</v>
       </c>
       <c r="V3" t="n">
-        <v>919.8439005526046</v>
+        <v>689.4687374664023</v>
       </c>
       <c r="W3" t="n">
-        <v>919.8439005526046</v>
+        <v>689.4687374664023</v>
       </c>
       <c r="X3" t="n">
-        <v>919.8439005526046</v>
+        <v>500.161659816414</v>
       </c>
       <c r="Y3" t="n">
-        <v>919.8439005526046</v>
+        <v>320.8474428919212</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>308.8172381610012</v>
+        <v>825.373909870927</v>
       </c>
       <c r="C4" t="n">
-        <v>308.8172381610012</v>
+        <v>655.1687919369163</v>
       </c>
       <c r="D4" t="n">
-        <v>308.8172381610012</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="E4" t="n">
-        <v>308.8172381610012</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="F4" t="n">
-        <v>151.4913033739742</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G4" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H4" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I4" t="n">
         <v>18.39687801105209</v>
@@ -4512,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>919.8439005526046</v>
+        <v>825.373909870927</v>
       </c>
       <c r="S4" t="n">
-        <v>919.8439005526046</v>
+        <v>825.373909870927</v>
       </c>
       <c r="T4" t="n">
-        <v>919.8439005526046</v>
+        <v>825.373909870927</v>
       </c>
       <c r="U4" t="n">
-        <v>687.5600872817448</v>
+        <v>825.373909870927</v>
       </c>
       <c r="V4" t="n">
-        <v>687.5600872817448</v>
+        <v>825.373909870927</v>
       </c>
       <c r="W4" t="n">
-        <v>541.101051431861</v>
+        <v>825.373909870927</v>
       </c>
       <c r="X4" t="n">
-        <v>308.8172381610012</v>
+        <v>825.373909870927</v>
       </c>
       <c r="Y4" t="n">
-        <v>308.8172381610012</v>
+        <v>825.373909870927</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>401.8718426190653</v>
+        <v>455.276274010885</v>
       </c>
       <c r="C5" t="n">
-        <v>401.8718426190653</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D5" t="n">
-        <v>401.8718426190653</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="E5" t="n">
-        <v>401.8718426190653</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="F5" t="n">
-        <v>389.0178081894471</v>
+        <v>27.51922948264486</v>
       </c>
       <c r="G5" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H5" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I5" t="n">
-        <v>18.3968780110521</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
         <v>163.0466509198802</v>
       </c>
       <c r="K5" t="n">
-        <v>390.7080163066499</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="L5" t="n">
-        <v>618.3693816934195</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M5" t="n">
-        <v>618.3693816934195</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N5" t="n">
-        <v>846.0307470801893</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O5" t="n">
-        <v>846.0307470801893</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P5" t="n">
-        <v>919.8439005526047</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q5" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R5" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S5" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T5" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U5" t="n">
-        <v>866.4394691607849</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V5" t="n">
-        <v>634.1556558899251</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W5" t="n">
-        <v>634.1556558899251</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X5" t="n">
-        <v>634.1556558899251</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.8718426190653</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18.3968780110521</v>
+        <v>169.309025670449</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3968780110521</v>
+        <v>18.65479523054125</v>
       </c>
       <c r="D6" t="n">
-        <v>18.3968780110521</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E6" t="n">
-        <v>18.3968780110521</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F6" t="n">
-        <v>18.3968780110521</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G6" t="n">
-        <v>18.3968780110521</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H6" t="n">
-        <v>18.3968780110521</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I6" t="n">
-        <v>18.3968780110521</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
         <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>131.5118602307795</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M6" t="n">
-        <v>359.1732256175491</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N6" t="n">
-        <v>586.8345910043188</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O6" t="n">
-        <v>814.4959563910884</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P6" t="n">
-        <v>814.4959563910884</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q6" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>895.9268574506693</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S6" t="n">
-        <v>760.9961803505382</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T6" t="n">
-        <v>760.9961803505382</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U6" t="n">
-        <v>550.93303702918</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V6" t="n">
-        <v>328.3930354002471</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W6" t="n">
-        <v>98.27578953353392</v>
+        <v>689.7266546858915</v>
       </c>
       <c r="X6" t="n">
-        <v>98.27578953353392</v>
+        <v>500.4195770359032</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.3968780110521</v>
+        <v>321.1053601114104</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.240007407087</v>
+        <v>204.4082612824354</v>
       </c>
       <c r="C7" t="n">
-        <v>109.0348894730762</v>
+        <v>204.4082612824354</v>
       </c>
       <c r="D7" t="n">
-        <v>18.3968780110521</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3968780110521</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="F7" t="n">
-        <v>18.3968780110521</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="G7" t="n">
-        <v>18.3968780110521</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="H7" t="n">
-        <v>18.3968780110521</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="I7" t="n">
-        <v>18.3968780110521</v>
+        <v>48.77514818495014</v>
       </c>
       <c r="J7" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K7" t="n">
         <v>100.231919120994</v>
@@ -4734,43 +4734,43 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M7" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N7" t="n">
         <v>633.8407713642671</v>
       </c>
       <c r="O7" t="n">
-        <v>796.5455384059752</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P7" t="n">
-        <v>916.4217041825538</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q7" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>919.8439005526047</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S7" t="n">
-        <v>919.8439005526047</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T7" t="n">
-        <v>919.8439005526047</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="U7" t="n">
-        <v>919.8439005526047</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="V7" t="n">
-        <v>919.8439005526047</v>
+        <v>204.4082612824354</v>
       </c>
       <c r="W7" t="n">
-        <v>919.8439005526047</v>
+        <v>204.4082612824354</v>
       </c>
       <c r="X7" t="n">
-        <v>687.5600872817449</v>
+        <v>204.4082612824354</v>
       </c>
       <c r="Y7" t="n">
-        <v>464.4480260983883</v>
+        <v>204.4082612824354</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="C8" t="n">
         <v>2127.814985091395</v>
@@ -4819,37 +4819,37 @@
         <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2118.077574438405</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>443.7671209181044</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1029.265125924707</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931309</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.28341352229</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>401.5784072734814</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>401.5784072734814</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>245.9452941759961</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>245.9452941759961</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>245.9452941759961</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -5004,10 +5004,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>714.6796704260792</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>586.7864259647827</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1618.248702971617</v>
+        <v>1618.248702971616</v>
       </c>
       <c r="C11" t="n">
-        <v>1314.021681253195</v>
+        <v>1314.021681253194</v>
       </c>
       <c r="D11" t="n">
-        <v>1304.490477554466</v>
+        <v>1017.529032248509</v>
       </c>
       <c r="E11" t="n">
-        <v>990.8554324496581</v>
+        <v>952.8532169188941</v>
       </c>
       <c r="F11" t="n">
-        <v>662.9094737582832</v>
+        <v>624.9072582275192</v>
       </c>
       <c r="G11" t="n">
-        <v>338.9905464873713</v>
+        <v>300.9883309566072</v>
       </c>
       <c r="H11" t="n">
-        <v>106.8807132734479</v>
+        <v>68.87849774268385</v>
       </c>
       <c r="I11" t="n">
-        <v>68.87849774268386</v>
+        <v>68.87849774268385</v>
       </c>
       <c r="J11" t="n">
-        <v>238.0967623172018</v>
+        <v>238.0967623172015</v>
       </c>
       <c r="K11" t="n">
-        <v>633.9009186270764</v>
+        <v>633.9009186270762</v>
       </c>
       <c r="L11" t="n">
-        <v>1172.901909602246</v>
+        <v>1172.901909602245</v>
       </c>
       <c r="M11" t="n">
         <v>1769.731389298285</v>
@@ -5056,37 +5056,37 @@
         <v>2349.19371214561</v>
       </c>
       <c r="O11" t="n">
-        <v>2838.005924712779</v>
+        <v>2838.005924712778</v>
       </c>
       <c r="P11" t="n">
-        <v>3227.819712514525</v>
+        <v>3227.819712514524</v>
       </c>
       <c r="Q11" t="n">
-        <v>3443.924887134193</v>
+        <v>3443.924887134192</v>
       </c>
       <c r="R11" t="n">
-        <v>3443.924887134193</v>
+        <v>3443.924887134192</v>
       </c>
       <c r="S11" t="n">
-        <v>3373.090064941687</v>
+        <v>3373.090064941686</v>
       </c>
       <c r="T11" t="n">
-        <v>3239.830830174072</v>
+        <v>3239.830830174071</v>
       </c>
       <c r="U11" t="n">
-        <v>3073.050208264313</v>
+        <v>3073.050208264312</v>
       </c>
       <c r="V11" t="n">
-        <v>2819.891878746479</v>
+        <v>2819.891878746478</v>
       </c>
       <c r="W11" t="n">
-        <v>2537.841323493413</v>
+        <v>2537.841323493412</v>
       </c>
       <c r="X11" t="n">
-        <v>2237.337198205118</v>
+        <v>2237.337198205117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1929.794968904366</v>
+        <v>1929.794968904365</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>112.8249663463758</v>
       </c>
       <c r="I12" t="n">
-        <v>68.87849774268386</v>
+        <v>68.87849774268385</v>
       </c>
       <c r="J12" t="n">
-        <v>141.676408392068</v>
+        <v>196.6263052874782</v>
       </c>
       <c r="K12" t="n">
-        <v>486.4253836169606</v>
+        <v>541.3752805123708</v>
       </c>
       <c r="L12" t="n">
-        <v>1003.620271229096</v>
+        <v>1058.570168124506</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.635146287703</v>
+        <v>1123.992412251644</v>
       </c>
       <c r="N12" t="n">
-        <v>2366.69499433551</v>
+        <v>1123.992412251644</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.69499433551</v>
+        <v>1677.362742445285</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.69499433551</v>
+        <v>2112.559523120402</v>
       </c>
       <c r="Q12" t="n">
         <v>2366.69499433551</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.4946390220163</v>
+        <v>536.4946390220158</v>
       </c>
       <c r="C13" t="n">
-        <v>455.2380008666529</v>
+        <v>455.2380008666524</v>
       </c>
       <c r="D13" t="n">
-        <v>388.553367547815</v>
+        <v>388.5533675478146</v>
       </c>
       <c r="E13" t="n">
-        <v>321.9430351856649</v>
+        <v>321.9430351856645</v>
       </c>
       <c r="F13" t="n">
-        <v>253.5655801772853</v>
+        <v>253.5655801772848</v>
       </c>
       <c r="G13" t="n">
         <v>174.3924892078938</v>
@@ -5196,37 +5196,37 @@
         <v>109.0403136131278</v>
       </c>
       <c r="I13" t="n">
-        <v>68.87849774268386</v>
+        <v>68.87849774268385</v>
       </c>
       <c r="J13" t="n">
         <v>135.4633245373782</v>
       </c>
       <c r="K13" t="n">
-        <v>319.5626007586857</v>
+        <v>319.5626007586856</v>
       </c>
       <c r="L13" t="n">
-        <v>590.1733142968276</v>
+        <v>590.1733142968275</v>
       </c>
       <c r="M13" t="n">
-        <v>883.9973640256777</v>
+        <v>883.9973640256774</v>
       </c>
       <c r="N13" t="n">
-        <v>1174.235495243019</v>
+        <v>1174.235495243018</v>
       </c>
       <c r="O13" t="n">
-        <v>1442.471913488605</v>
+        <v>1442.471913488604</v>
       </c>
       <c r="P13" t="n">
-        <v>1665.23085701834</v>
+        <v>1665.230857018339</v>
       </c>
       <c r="Q13" t="n">
-        <v>1766.704352071224</v>
+        <v>1766.704352071223</v>
       </c>
       <c r="R13" t="n">
-        <v>1737.708766776465</v>
+        <v>1737.708766776464</v>
       </c>
       <c r="S13" t="n">
-        <v>1626.149982768319</v>
+        <v>1626.149982768318</v>
       </c>
       <c r="T13" t="n">
         <v>1479.94547509413</v>
@@ -5235,16 +5235,16 @@
         <v>1283.462389468452</v>
       </c>
       <c r="V13" t="n">
-        <v>1106.431524067924</v>
+        <v>1106.431524067923</v>
       </c>
       <c r="W13" t="n">
-        <v>912.0496017777489</v>
+        <v>912.0496017777484</v>
       </c>
       <c r="X13" t="n">
-        <v>766.9177593393794</v>
+        <v>766.9177593393789</v>
       </c>
       <c r="Y13" t="n">
-        <v>632.7541779346701</v>
+        <v>632.7541779346697</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1618.248702971617</v>
+        <v>1867.207932746809</v>
       </c>
       <c r="C14" t="n">
-        <v>1314.021681253195</v>
+        <v>1562.980911028387</v>
       </c>
       <c r="D14" t="n">
-        <v>1304.490477554466</v>
+        <v>1266.488262023702</v>
       </c>
       <c r="E14" t="n">
-        <v>990.8554324496581</v>
+        <v>952.8532169188941</v>
       </c>
       <c r="F14" t="n">
-        <v>662.9094737582832</v>
+        <v>624.9072582275192</v>
       </c>
       <c r="G14" t="n">
-        <v>338.9905464873713</v>
+        <v>300.9883309566072</v>
       </c>
       <c r="H14" t="n">
-        <v>106.8807132734479</v>
+        <v>68.87849774268385</v>
       </c>
       <c r="I14" t="n">
-        <v>68.87849774268386</v>
+        <v>68.87849774268385</v>
       </c>
       <c r="J14" t="n">
-        <v>238.0967623172018</v>
+        <v>238.0967623172012</v>
       </c>
       <c r="K14" t="n">
-        <v>633.9009186270764</v>
+        <v>633.900918627076</v>
       </c>
       <c r="L14" t="n">
-        <v>1172.901909602246</v>
+        <v>1172.901909602245</v>
       </c>
       <c r="M14" t="n">
         <v>1769.731389298285</v>
@@ -5293,37 +5293,37 @@
         <v>2349.19371214561</v>
       </c>
       <c r="O14" t="n">
-        <v>2838.005924712779</v>
+        <v>2838.005924712778</v>
       </c>
       <c r="P14" t="n">
-        <v>3227.819712514525</v>
+        <v>3227.819712514524</v>
       </c>
       <c r="Q14" t="n">
-        <v>3443.924887134193</v>
+        <v>3443.924887134192</v>
       </c>
       <c r="R14" t="n">
-        <v>3443.924887134193</v>
+        <v>3443.924887134192</v>
       </c>
       <c r="S14" t="n">
-        <v>3373.090064941687</v>
+        <v>3443.924887134192</v>
       </c>
       <c r="T14" t="n">
-        <v>3239.830830174072</v>
+        <v>3443.924887134192</v>
       </c>
       <c r="U14" t="n">
-        <v>3073.050208264313</v>
+        <v>3322.009438039505</v>
       </c>
       <c r="V14" t="n">
-        <v>2819.891878746479</v>
+        <v>3068.851108521671</v>
       </c>
       <c r="W14" t="n">
-        <v>2537.841323493413</v>
+        <v>2786.800553268606</v>
       </c>
       <c r="X14" t="n">
-        <v>2237.337198205118</v>
+        <v>2486.29642798031</v>
       </c>
       <c r="Y14" t="n">
-        <v>1929.794968904366</v>
+        <v>2178.754198679559</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>112.8249663463758</v>
       </c>
       <c r="I15" t="n">
-        <v>68.87849774268386</v>
+        <v>68.87849774268385</v>
       </c>
       <c r="J15" t="n">
-        <v>68.87849774268386</v>
+        <v>68.87849774268385</v>
       </c>
       <c r="K15" t="n">
-        <v>68.87849774268386</v>
+        <v>413.6274729675764</v>
       </c>
       <c r="L15" t="n">
-        <v>586.0733853548193</v>
+        <v>930.8223605797118</v>
       </c>
       <c r="M15" t="n">
-        <v>586.0733853548193</v>
+        <v>1597.837235638319</v>
       </c>
       <c r="N15" t="n">
-        <v>1282.133233402626</v>
+        <v>1597.837235638319</v>
       </c>
       <c r="O15" t="n">
-        <v>1835.503563596268</v>
+        <v>1677.362742445285</v>
       </c>
       <c r="P15" t="n">
         <v>2112.559523120402</v>
@@ -5433,7 +5433,7 @@
         <v>109.0403136131278</v>
       </c>
       <c r="I16" t="n">
-        <v>68.87849774268386</v>
+        <v>68.87849774268385</v>
       </c>
       <c r="J16" t="n">
         <v>135.4633245373782</v>
@@ -5448,13 +5448,13 @@
         <v>883.9973640256777</v>
       </c>
       <c r="N16" t="n">
-        <v>1174.235495243019</v>
+        <v>1174.235495243018</v>
       </c>
       <c r="O16" t="n">
         <v>1442.471913488605</v>
       </c>
       <c r="P16" t="n">
-        <v>1665.23085701834</v>
+        <v>1665.230857018339</v>
       </c>
       <c r="Q16" t="n">
         <v>1766.704352071224</v>
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1905.210148277573</v>
+        <v>1635.098099532886</v>
       </c>
       <c r="C17" t="n">
-        <v>1600.983126559151</v>
+        <v>1330.871077814464</v>
       </c>
       <c r="D17" t="n">
-        <v>1304.490477554466</v>
+        <v>1034.378428809779</v>
       </c>
       <c r="E17" t="n">
-        <v>990.8554324496581</v>
+        <v>720.7433837049707</v>
       </c>
       <c r="F17" t="n">
-        <v>662.9094737582832</v>
+        <v>392.7974250135958</v>
       </c>
       <c r="G17" t="n">
-        <v>338.9905464873713</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="H17" t="n">
-        <v>106.8807132734479</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="I17" t="n">
         <v>68.87849774268386</v>
       </c>
       <c r="J17" t="n">
-        <v>238.0967623172017</v>
+        <v>238.0967623172014</v>
       </c>
       <c r="K17" t="n">
-        <v>633.9009186270764</v>
+        <v>633.9009186270762</v>
       </c>
       <c r="L17" t="n">
-        <v>1172.901909602246</v>
+        <v>1172.901909602245</v>
       </c>
       <c r="M17" t="n">
         <v>1769.731389298285</v>
@@ -5530,7 +5530,7 @@
         <v>2349.19371214561</v>
       </c>
       <c r="O17" t="n">
-        <v>2838.005924712779</v>
+        <v>2838.005924712778</v>
       </c>
       <c r="P17" t="n">
         <v>3227.819712514525</v>
@@ -5542,25 +5542,25 @@
         <v>3443.924887134193</v>
       </c>
       <c r="S17" t="n">
-        <v>3443.924887134193</v>
+        <v>3389.939461502956</v>
       </c>
       <c r="T17" t="n">
-        <v>3310.665652366578</v>
+        <v>3256.680226735341</v>
       </c>
       <c r="U17" t="n">
-        <v>3143.885030456819</v>
+        <v>3089.899604825582</v>
       </c>
       <c r="V17" t="n">
-        <v>3106.853324052435</v>
+        <v>2836.741275307748</v>
       </c>
       <c r="W17" t="n">
-        <v>2824.80276879937</v>
+        <v>2554.690720054683</v>
       </c>
       <c r="X17" t="n">
-        <v>2524.298643511074</v>
+        <v>2254.186594766387</v>
       </c>
       <c r="Y17" t="n">
-        <v>2216.756414210323</v>
+        <v>1946.644365465635</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J18" t="n">
-        <v>196.6263052874783</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="K18" t="n">
-        <v>541.3752805123709</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="L18" t="n">
-        <v>541.3752805123709</v>
+        <v>450.2499410354544</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.390155570978</v>
+        <v>1117.264816094062</v>
       </c>
       <c r="N18" t="n">
-        <v>1677.362742445285</v>
+        <v>1813.324664141868</v>
       </c>
       <c r="O18" t="n">
-        <v>1677.362742445285</v>
+        <v>2366.69499433551</v>
       </c>
       <c r="P18" t="n">
-        <v>2112.559523120402</v>
+        <v>2366.69499433551</v>
       </c>
       <c r="Q18" t="n">
         <v>2366.69499433551</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>536.4946390220163</v>
+        <v>536.4946390220159</v>
       </c>
       <c r="C19" t="n">
-        <v>455.2380008666529</v>
+        <v>455.2380008666526</v>
       </c>
       <c r="D19" t="n">
-        <v>388.553367547815</v>
+        <v>388.5533675478147</v>
       </c>
       <c r="E19" t="n">
-        <v>321.9430351856649</v>
+        <v>321.9430351856646</v>
       </c>
       <c r="F19" t="n">
-        <v>253.5655801772853</v>
+        <v>253.5655801772849</v>
       </c>
       <c r="G19" t="n">
         <v>174.3924892078938</v>
@@ -5676,22 +5676,22 @@
         <v>135.4633245373782</v>
       </c>
       <c r="K19" t="n">
-        <v>319.5626007586857</v>
+        <v>319.5626007586858</v>
       </c>
       <c r="L19" t="n">
         <v>590.1733142968276</v>
       </c>
       <c r="M19" t="n">
-        <v>883.9973640256778</v>
+        <v>883.9973640256777</v>
       </c>
       <c r="N19" t="n">
-        <v>1174.235495243019</v>
+        <v>1174.235495243018</v>
       </c>
       <c r="O19" t="n">
         <v>1442.471913488605</v>
       </c>
       <c r="P19" t="n">
-        <v>1665.23085701834</v>
+        <v>1665.230857018339</v>
       </c>
       <c r="Q19" t="n">
         <v>1766.704352071224</v>
@@ -5709,16 +5709,16 @@
         <v>1283.462389468452</v>
       </c>
       <c r="V19" t="n">
-        <v>1106.431524067924</v>
+        <v>1106.431524067923</v>
       </c>
       <c r="W19" t="n">
-        <v>912.049601777749</v>
+        <v>912.0496017777484</v>
       </c>
       <c r="X19" t="n">
-        <v>766.9177593393795</v>
+        <v>766.917759339379</v>
       </c>
       <c r="Y19" t="n">
-        <v>632.7541779346701</v>
+        <v>632.7541779346698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1673.10031506365</v>
+        <v>1635.098099532886</v>
       </c>
       <c r="C20" t="n">
-        <v>1368.873293345228</v>
+        <v>1330.871077814464</v>
       </c>
       <c r="D20" t="n">
-        <v>1072.380644340543</v>
+        <v>1034.378428809779</v>
       </c>
       <c r="E20" t="n">
-        <v>758.7455992357347</v>
+        <v>720.7433837049707</v>
       </c>
       <c r="F20" t="n">
-        <v>430.7996405443598</v>
+        <v>392.7974250135958</v>
       </c>
       <c r="G20" t="n">
-        <v>106.8807132734479</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="H20" t="n">
-        <v>106.8807132734479</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="I20" t="n">
         <v>68.87849774268386</v>
       </c>
       <c r="J20" t="n">
-        <v>238.0967623172014</v>
+        <v>238.0967623172012</v>
       </c>
       <c r="K20" t="n">
-        <v>633.9009186270764</v>
+        <v>633.900918627076</v>
       </c>
       <c r="L20" t="n">
-        <v>1172.901909602246</v>
+        <v>1172.901909602245</v>
       </c>
       <c r="M20" t="n">
         <v>1769.731389298285</v>
@@ -5767,7 +5767,7 @@
         <v>2349.19371214561</v>
       </c>
       <c r="O20" t="n">
-        <v>2838.005924712779</v>
+        <v>2838.005924712778</v>
       </c>
       <c r="P20" t="n">
         <v>3227.819712514525</v>
@@ -5782,22 +5782,22 @@
         <v>3373.090064941687</v>
       </c>
       <c r="T20" t="n">
-        <v>3239.830830174072</v>
+        <v>3239.830830174071</v>
       </c>
       <c r="U20" t="n">
-        <v>3073.050208264313</v>
+        <v>3073.050208264312</v>
       </c>
       <c r="V20" t="n">
-        <v>2874.743490838512</v>
+        <v>2836.741275307748</v>
       </c>
       <c r="W20" t="n">
-        <v>2592.692935585446</v>
+        <v>2554.690720054683</v>
       </c>
       <c r="X20" t="n">
-        <v>2292.188810297151</v>
+        <v>2254.186594766387</v>
       </c>
       <c r="Y20" t="n">
-        <v>1984.646580996399</v>
+        <v>1946.644365465635</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J21" t="n">
-        <v>68.87849774268386</v>
+        <v>196.6263052874782</v>
       </c>
       <c r="K21" t="n">
-        <v>68.87849774268386</v>
+        <v>541.3752805123709</v>
       </c>
       <c r="L21" t="n">
-        <v>586.0733853548193</v>
+        <v>1058.570168124506</v>
       </c>
       <c r="M21" t="n">
-        <v>1123.992412251644</v>
+        <v>1058.570168124506</v>
       </c>
       <c r="N21" t="n">
-        <v>1123.992412251644</v>
+        <v>1754.630016172313</v>
       </c>
       <c r="O21" t="n">
-        <v>1677.362742445285</v>
+        <v>1754.630016172313</v>
       </c>
       <c r="P21" t="n">
-        <v>2112.559523120402</v>
+        <v>2189.826796847429</v>
       </c>
       <c r="Q21" t="n">
         <v>2366.69499433551</v>
@@ -5913,13 +5913,13 @@
         <v>135.4633245373782</v>
       </c>
       <c r="K22" t="n">
-        <v>319.5626007586858</v>
+        <v>319.5626007586857</v>
       </c>
       <c r="L22" t="n">
-        <v>590.1733142968277</v>
+        <v>590.1733142968276</v>
       </c>
       <c r="M22" t="n">
-        <v>883.9973640256778</v>
+        <v>883.9973640256777</v>
       </c>
       <c r="N22" t="n">
         <v>1174.235495243019</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1673.10031506365</v>
+        <v>1905.210148277573</v>
       </c>
       <c r="C23" t="n">
-        <v>1368.873293345228</v>
+        <v>1600.983126559151</v>
       </c>
       <c r="D23" t="n">
-        <v>1072.380644340543</v>
+        <v>1304.490477554466</v>
       </c>
       <c r="E23" t="n">
-        <v>758.7455992357347</v>
+        <v>990.8554324496581</v>
       </c>
       <c r="F23" t="n">
-        <v>430.7996405443598</v>
+        <v>662.9094737582832</v>
       </c>
       <c r="G23" t="n">
-        <v>106.8807132734479</v>
+        <v>338.9905464873713</v>
       </c>
       <c r="H23" t="n">
         <v>106.8807132734479</v>
@@ -5989,10 +5989,10 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J23" t="n">
-        <v>238.0967623172014</v>
+        <v>238.0967623172015</v>
       </c>
       <c r="K23" t="n">
-        <v>633.9009186270764</v>
+        <v>633.9009186270763</v>
       </c>
       <c r="L23" t="n">
         <v>1172.901909602246</v>
@@ -6004,7 +6004,7 @@
         <v>2349.19371214561</v>
       </c>
       <c r="O23" t="n">
-        <v>2838.005924712779</v>
+        <v>2838.005924712778</v>
       </c>
       <c r="P23" t="n">
         <v>3227.819712514525</v>
@@ -6016,25 +6016,25 @@
         <v>3443.924887134193</v>
       </c>
       <c r="S23" t="n">
-        <v>3373.090064941687</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="T23" t="n">
-        <v>3239.830830174072</v>
+        <v>3310.665652366577</v>
       </c>
       <c r="U23" t="n">
-        <v>3073.050208264313</v>
+        <v>3143.885030456819</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.891878746479</v>
+        <v>3106.853324052435</v>
       </c>
       <c r="W23" t="n">
-        <v>2537.841323493413</v>
+        <v>2824.80276879937</v>
       </c>
       <c r="X23" t="n">
-        <v>2292.188810297151</v>
+        <v>2524.298643511074</v>
       </c>
       <c r="Y23" t="n">
-        <v>1984.646580996399</v>
+        <v>2216.756414210323</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J24" t="n">
-        <v>196.6263052874783</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="K24" t="n">
-        <v>196.6263052874783</v>
+        <v>413.6274729675765</v>
       </c>
       <c r="L24" t="n">
-        <v>196.6263052874783</v>
+        <v>930.8223605797118</v>
       </c>
       <c r="M24" t="n">
-        <v>427.9325642038369</v>
+        <v>1123.992412251644</v>
       </c>
       <c r="N24" t="n">
         <v>1123.992412251644</v>
@@ -6147,16 +6147,16 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J25" t="n">
-        <v>135.4633245373783</v>
+        <v>135.4633245373782</v>
       </c>
       <c r="K25" t="n">
-        <v>319.5626007586858</v>
+        <v>319.5626007586857</v>
       </c>
       <c r="L25" t="n">
-        <v>590.1733142968277</v>
+        <v>590.1733142968276</v>
       </c>
       <c r="M25" t="n">
-        <v>883.9973640256778</v>
+        <v>883.9973640256777</v>
       </c>
       <c r="N25" t="n">
         <v>1174.235495243019</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1618.248702971617</v>
+        <v>1905.210148277573</v>
       </c>
       <c r="C26" t="n">
-        <v>1314.021681253195</v>
+        <v>1600.983126559151</v>
       </c>
       <c r="D26" t="n">
-        <v>1017.52903224851</v>
+        <v>1304.490477554466</v>
       </c>
       <c r="E26" t="n">
-        <v>703.8939871437017</v>
+        <v>990.8554324496581</v>
       </c>
       <c r="F26" t="n">
         <v>662.9094737582832</v>
@@ -6226,10 +6226,10 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J26" t="n">
-        <v>238.0967623172015</v>
+        <v>238.0967623172014</v>
       </c>
       <c r="K26" t="n">
-        <v>633.9009186270763</v>
+        <v>633.9009186270764</v>
       </c>
       <c r="L26" t="n">
         <v>1172.901909602246</v>
@@ -6253,25 +6253,25 @@
         <v>3443.924887134193</v>
       </c>
       <c r="S26" t="n">
-        <v>3373.090064941687</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="T26" t="n">
-        <v>3239.830830174072</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="U26" t="n">
-        <v>3073.050208264313</v>
+        <v>3360.01165357027</v>
       </c>
       <c r="V26" t="n">
-        <v>2819.891878746479</v>
+        <v>3106.853324052435</v>
       </c>
       <c r="W26" t="n">
-        <v>2537.841323493413</v>
+        <v>2824.80276879937</v>
       </c>
       <c r="X26" t="n">
-        <v>2237.337198205118</v>
+        <v>2524.298643511074</v>
       </c>
       <c r="Y26" t="n">
-        <v>1929.794968904366</v>
+        <v>2216.756414210323</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J27" t="n">
-        <v>196.6263052874783</v>
+        <v>196.6263052874782</v>
       </c>
       <c r="K27" t="n">
-        <v>541.3752805123709</v>
+        <v>196.6263052874782</v>
       </c>
       <c r="L27" t="n">
-        <v>749.4848000139876</v>
+        <v>196.6263052874782</v>
       </c>
       <c r="M27" t="n">
-        <v>1416.499675072595</v>
+        <v>863.6411803460854</v>
       </c>
       <c r="N27" t="n">
-        <v>2112.559523120402</v>
+        <v>1559.701028393892</v>
       </c>
       <c r="O27" t="n">
         <v>2112.559523120402</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1618.248702971617</v>
+        <v>1905.210148277573</v>
       </c>
       <c r="C29" t="n">
-        <v>1314.021681253195</v>
+        <v>1600.983126559151</v>
       </c>
       <c r="D29" t="n">
-        <v>1017.52903224851</v>
+        <v>1304.490477554466</v>
       </c>
       <c r="E29" t="n">
-        <v>703.8939871437017</v>
+        <v>990.8554324496581</v>
       </c>
       <c r="F29" t="n">
-        <v>375.9480284523268</v>
+        <v>662.9094737582832</v>
       </c>
       <c r="G29" t="n">
         <v>338.9905464873713</v>
@@ -6490,25 +6490,25 @@
         <v>3443.924887134193</v>
       </c>
       <c r="S29" t="n">
-        <v>3373.090064941687</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="T29" t="n">
-        <v>3239.830830174072</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="U29" t="n">
-        <v>3073.050208264313</v>
+        <v>3360.01165357027</v>
       </c>
       <c r="V29" t="n">
-        <v>2819.891878746479</v>
+        <v>3106.853324052435</v>
       </c>
       <c r="W29" t="n">
-        <v>2537.841323493413</v>
+        <v>2824.80276879937</v>
       </c>
       <c r="X29" t="n">
-        <v>2237.337198205118</v>
+        <v>2524.298643511074</v>
       </c>
       <c r="Y29" t="n">
-        <v>1929.794968904366</v>
+        <v>2216.756414210323</v>
       </c>
     </row>
     <row r="30">
@@ -6542,7 +6542,7 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J30" t="n">
-        <v>196.6263052874783</v>
+        <v>196.6263052874782</v>
       </c>
       <c r="K30" t="n">
         <v>541.3752805123709</v>
@@ -6551,7 +6551,7 @@
         <v>1058.570168124506</v>
       </c>
       <c r="M30" t="n">
-        <v>1123.992412251644</v>
+        <v>1058.570168124506</v>
       </c>
       <c r="N30" t="n">
         <v>1123.992412251644</v>
@@ -6612,7 +6612,7 @@
         <v>253.5655801772853</v>
       </c>
       <c r="G31" t="n">
-        <v>174.3924892078937</v>
+        <v>174.3924892078938</v>
       </c>
       <c r="H31" t="n">
         <v>109.0403136131278</v>
@@ -6630,16 +6630,16 @@
         <v>590.1733142968276</v>
       </c>
       <c r="M31" t="n">
-        <v>883.9973640256777</v>
+        <v>883.9973640256776</v>
       </c>
       <c r="N31" t="n">
-        <v>1174.235495243019</v>
+        <v>1174.235495243018</v>
       </c>
       <c r="O31" t="n">
         <v>1442.471913488605</v>
       </c>
       <c r="P31" t="n">
-        <v>1665.23085701834</v>
+        <v>1665.230857018339</v>
       </c>
       <c r="Q31" t="n">
         <v>1766.704352071224</v>
@@ -6660,10 +6660,10 @@
         <v>1106.431524067924</v>
       </c>
       <c r="W31" t="n">
-        <v>912.0496017777489</v>
+        <v>912.0496017777488</v>
       </c>
       <c r="X31" t="n">
-        <v>766.9177593393794</v>
+        <v>766.9177593393792</v>
       </c>
       <c r="Y31" t="n">
         <v>632.7541779346701</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1635.098099532886</v>
+        <v>1905.210148277573</v>
       </c>
       <c r="C32" t="n">
-        <v>1330.871077814464</v>
+        <v>1600.983126559151</v>
       </c>
       <c r="D32" t="n">
-        <v>1034.378428809779</v>
+        <v>1304.490477554466</v>
       </c>
       <c r="E32" t="n">
-        <v>720.7433837049707</v>
+        <v>990.8554324496581</v>
       </c>
       <c r="F32" t="n">
-        <v>392.7974250135958</v>
+        <v>662.9094737582832</v>
       </c>
       <c r="G32" t="n">
-        <v>68.87849774268386</v>
+        <v>338.9905464873713</v>
       </c>
       <c r="H32" t="n">
-        <v>68.87849774268386</v>
+        <v>106.8807132734479</v>
       </c>
       <c r="I32" t="n">
         <v>68.87849774268386</v>
@@ -6727,25 +6727,25 @@
         <v>3443.924887134193</v>
       </c>
       <c r="S32" t="n">
-        <v>3373.090064941687</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="T32" t="n">
-        <v>3239.830830174072</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="U32" t="n">
-        <v>3073.050208264313</v>
+        <v>3360.01165357027</v>
       </c>
       <c r="V32" t="n">
-        <v>2819.891878746479</v>
+        <v>3106.853324052435</v>
       </c>
       <c r="W32" t="n">
-        <v>2537.841323493413</v>
+        <v>2824.80276879937</v>
       </c>
       <c r="X32" t="n">
-        <v>2254.186594766387</v>
+        <v>2524.298643511074</v>
       </c>
       <c r="Y32" t="n">
-        <v>1946.644365465635</v>
+        <v>2216.756414210323</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J33" t="n">
-        <v>83.18358897894433</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="K33" t="n">
-        <v>427.9325642038369</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="L33" t="n">
-        <v>427.9325642038369</v>
+        <v>450.2499410354544</v>
       </c>
       <c r="M33" t="n">
-        <v>427.9325642038369</v>
+        <v>1117.264816094062</v>
       </c>
       <c r="N33" t="n">
-        <v>1123.992412251644</v>
+        <v>1813.324664141868</v>
       </c>
       <c r="O33" t="n">
-        <v>1677.362742445285</v>
+        <v>2366.69499433551</v>
       </c>
       <c r="P33" t="n">
-        <v>2112.559523120402</v>
+        <v>2366.69499433551</v>
       </c>
       <c r="Q33" t="n">
         <v>2366.69499433551</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>536.4946390220163</v>
+        <v>536.4946390220161</v>
       </c>
       <c r="C34" t="n">
-        <v>455.2380008666529</v>
+        <v>455.2380008666528</v>
       </c>
       <c r="D34" t="n">
-        <v>388.553367547815</v>
+        <v>388.5533675478149</v>
       </c>
       <c r="E34" t="n">
-        <v>321.9430351856649</v>
+        <v>321.9430351856648</v>
       </c>
       <c r="F34" t="n">
-        <v>253.5655801772853</v>
+        <v>253.5655801772851</v>
       </c>
       <c r="G34" t="n">
         <v>174.3924892078938</v>
@@ -6858,7 +6858,7 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J34" t="n">
-        <v>135.4633245373782</v>
+        <v>135.4633245373783</v>
       </c>
       <c r="K34" t="n">
         <v>319.5626007586857</v>
@@ -6867,7 +6867,7 @@
         <v>590.1733142968276</v>
       </c>
       <c r="M34" t="n">
-        <v>883.9973640256776</v>
+        <v>883.9973640256777</v>
       </c>
       <c r="N34" t="n">
         <v>1174.235495243018</v>
@@ -6876,7 +6876,7 @@
         <v>1442.471913488605</v>
       </c>
       <c r="P34" t="n">
-        <v>1665.230857018339</v>
+        <v>1665.23085701834</v>
       </c>
       <c r="Q34" t="n">
         <v>1766.704352071224</v>
@@ -6900,10 +6900,10 @@
         <v>912.0496017777489</v>
       </c>
       <c r="X34" t="n">
-        <v>766.9177593393795</v>
+        <v>766.9177593393794</v>
       </c>
       <c r="Y34" t="n">
-        <v>632.7541779346702</v>
+        <v>632.75417793467</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1618.248702971617</v>
+        <v>1822.342759931738</v>
       </c>
       <c r="C35" t="n">
-        <v>1314.021681253195</v>
+        <v>1518.115738213316</v>
       </c>
       <c r="D35" t="n">
-        <v>1017.52903224851</v>
+        <v>1221.623089208631</v>
       </c>
       <c r="E35" t="n">
-        <v>703.8939871437017</v>
+        <v>907.9880441038233</v>
       </c>
       <c r="F35" t="n">
-        <v>375.9480284523268</v>
+        <v>580.0420854124484</v>
       </c>
       <c r="G35" t="n">
-        <v>338.9905464873713</v>
+        <v>300.9883309566072</v>
       </c>
       <c r="H35" t="n">
-        <v>106.8807132734479</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="I35" t="n">
         <v>68.87849774268386</v>
       </c>
       <c r="J35" t="n">
-        <v>238.0967623172012</v>
+        <v>238.0967623172015</v>
       </c>
       <c r="K35" t="n">
-        <v>633.9009186270762</v>
+        <v>633.9009186270763</v>
       </c>
       <c r="L35" t="n">
-        <v>1172.901909602245</v>
+        <v>1172.901909602246</v>
       </c>
       <c r="M35" t="n">
         <v>1769.731389298285</v>
@@ -6964,25 +6964,25 @@
         <v>3443.924887134193</v>
       </c>
       <c r="S35" t="n">
-        <v>3373.090064941687</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="T35" t="n">
-        <v>3239.830830174072</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="U35" t="n">
-        <v>3073.050208264313</v>
+        <v>3277.144265224435</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.891878746479</v>
+        <v>3023.9859357066</v>
       </c>
       <c r="W35" t="n">
-        <v>2537.841323493413</v>
+        <v>2741.935380453535</v>
       </c>
       <c r="X35" t="n">
-        <v>2237.337198205118</v>
+        <v>2441.431255165239</v>
       </c>
       <c r="Y35" t="n">
-        <v>1929.794968904366</v>
+        <v>2133.889025864488</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J36" t="n">
-        <v>196.6263052874783</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="K36" t="n">
-        <v>196.6263052874783</v>
+        <v>413.6274729675765</v>
       </c>
       <c r="L36" t="n">
-        <v>456.9775371930363</v>
+        <v>930.8223605797118</v>
       </c>
       <c r="M36" t="n">
-        <v>1123.992412251644</v>
+        <v>930.8223605797118</v>
       </c>
       <c r="N36" t="n">
-        <v>1123.992412251644</v>
+        <v>1626.882208627518</v>
       </c>
       <c r="O36" t="n">
-        <v>1677.362742445285</v>
+        <v>2180.25253882116</v>
       </c>
       <c r="P36" t="n">
-        <v>2112.559523120402</v>
+        <v>2180.25253882116</v>
       </c>
       <c r="Q36" t="n">
         <v>2366.69499433551</v>
@@ -7080,10 +7080,10 @@
         <v>388.5533675478151</v>
       </c>
       <c r="E37" t="n">
-        <v>321.943035185665</v>
+        <v>321.9430351856651</v>
       </c>
       <c r="F37" t="n">
-        <v>253.5655801772853</v>
+        <v>253.5655801772854</v>
       </c>
       <c r="G37" t="n">
         <v>174.3924892078938</v>
@@ -7101,10 +7101,10 @@
         <v>319.5626007586857</v>
       </c>
       <c r="L37" t="n">
-        <v>590.1733142968277</v>
+        <v>590.1733142968276</v>
       </c>
       <c r="M37" t="n">
-        <v>883.9973640256778</v>
+        <v>883.9973640256777</v>
       </c>
       <c r="N37" t="n">
         <v>1174.235495243019</v>
@@ -7159,34 +7159,34 @@
         <v>1017.52903224851</v>
       </c>
       <c r="E38" t="n">
-        <v>758.7455992357347</v>
+        <v>703.8939871437017</v>
       </c>
       <c r="F38" t="n">
-        <v>430.7996405443598</v>
+        <v>375.9480284523268</v>
       </c>
       <c r="G38" t="n">
-        <v>106.8807132734479</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="H38" t="n">
-        <v>106.8807132734479</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="I38" t="n">
         <v>68.87849774268386</v>
       </c>
       <c r="J38" t="n">
-        <v>238.0967623172019</v>
+        <v>238.0967623172018</v>
       </c>
       <c r="K38" t="n">
-        <v>633.9009186270769</v>
+        <v>633.9009186270764</v>
       </c>
       <c r="L38" t="n">
         <v>1172.901909602246</v>
       </c>
       <c r="M38" t="n">
-        <v>1769.731389298286</v>
+        <v>1769.731389298285</v>
       </c>
       <c r="N38" t="n">
-        <v>2349.193712145611</v>
+        <v>2349.19371214561</v>
       </c>
       <c r="O38" t="n">
         <v>2838.005924712779</v>
@@ -7256,22 +7256,22 @@
         <v>68.87849774268386</v>
       </c>
       <c r="K39" t="n">
-        <v>68.87849774268386</v>
+        <v>193.9181207960092</v>
       </c>
       <c r="L39" t="n">
-        <v>586.0733853548193</v>
+        <v>711.1130084081447</v>
       </c>
       <c r="M39" t="n">
-        <v>586.0733853548193</v>
+        <v>1378.127883466752</v>
       </c>
       <c r="N39" t="n">
-        <v>1282.133233402626</v>
+        <v>1378.127883466752</v>
       </c>
       <c r="O39" t="n">
-        <v>1835.503563596268</v>
+        <v>1931.498213660393</v>
       </c>
       <c r="P39" t="n">
-        <v>2112.559523120402</v>
+        <v>2366.69499433551</v>
       </c>
       <c r="Q39" t="n">
         <v>2366.69499433551</v>
@@ -7332,16 +7332,16 @@
         <v>68.87849774268386</v>
       </c>
       <c r="J40" t="n">
-        <v>135.4633245373783</v>
+        <v>135.4633245373782</v>
       </c>
       <c r="K40" t="n">
-        <v>319.5626007586858</v>
+        <v>319.5626007586857</v>
       </c>
       <c r="L40" t="n">
-        <v>590.1733142968277</v>
+        <v>590.1733142968276</v>
       </c>
       <c r="M40" t="n">
-        <v>883.9973640256778</v>
+        <v>883.9973640256777</v>
       </c>
       <c r="N40" t="n">
         <v>1174.235495243019</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1443.494644932104</v>
+        <v>2001.757725588048</v>
       </c>
       <c r="C41" t="n">
-        <v>1443.494644932104</v>
+        <v>1608.582224090978</v>
       </c>
       <c r="D41" t="n">
-        <v>1443.494644932104</v>
+        <v>1223.141095307646</v>
       </c>
       <c r="E41" t="n">
-        <v>1346.649351564247</v>
+        <v>898.6403432622653</v>
       </c>
       <c r="F41" t="n">
-        <v>929.7549130942252</v>
+        <v>481.7459047922432</v>
       </c>
       <c r="G41" t="n">
-        <v>516.887506044666</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="H41" t="n">
-        <v>195.8291930520953</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="I41" t="n">
         <v>68.87849774268386</v>
@@ -7435,28 +7435,28 @@
         <v>3443.924887134193</v>
       </c>
       <c r="R41" t="n">
-        <v>3424.484656273308</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="S41" t="n">
-        <v>3424.484656273308</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="T41" t="n">
-        <v>3202.276941727045</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="U41" t="n">
-        <v>2946.547840038639</v>
+        <v>3188.195785445787</v>
       </c>
       <c r="V41" t="n">
-        <v>2604.441030742157</v>
+        <v>3188.195785445787</v>
       </c>
       <c r="W41" t="n">
-        <v>2233.441995710445</v>
+        <v>3188.195785445787</v>
       </c>
       <c r="X41" t="n">
-        <v>1843.989390643501</v>
+        <v>2798.743180378844</v>
       </c>
       <c r="Y41" t="n">
-        <v>1843.989390643501</v>
+        <v>2402.252471299445</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1938.349370655716</v>
+        <v>861.1194778570339</v>
       </c>
       <c r="C42" t="n">
-        <v>1787.695140215808</v>
+        <v>710.4652474171261</v>
       </c>
       <c r="D42" t="n">
-        <v>1657.606172837289</v>
+        <v>580.3762800386064</v>
       </c>
       <c r="E42" t="n">
-        <v>1521.159681948177</v>
+        <v>443.9297891494941</v>
       </c>
       <c r="F42" t="n">
-        <v>1396.727875831308</v>
+        <v>319.4979830326259</v>
       </c>
       <c r="G42" t="n">
-        <v>1276.826083262108</v>
+        <v>199.5961904634257</v>
       </c>
       <c r="H42" t="n">
-        <v>1190.054859145058</v>
+        <v>112.8249663463758</v>
       </c>
       <c r="I42" t="n">
-        <v>1146.108390541366</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="J42" t="n">
-        <v>1273.85619808616</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="K42" t="n">
-        <v>1618.605173311053</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="L42" t="n">
-        <v>2135.800060923188</v>
+        <v>450.2499410354544</v>
       </c>
       <c r="M42" t="n">
-        <v>2135.800060923188</v>
+        <v>1117.264816094062</v>
       </c>
       <c r="N42" t="n">
-        <v>2201.222305050327</v>
+        <v>1813.324664141868</v>
       </c>
       <c r="O42" t="n">
-        <v>2754.592635243969</v>
+        <v>2366.69499433551</v>
       </c>
       <c r="P42" t="n">
-        <v>3189.789415919085</v>
+        <v>2366.69499433551</v>
       </c>
       <c r="Q42" t="n">
-        <v>3443.924887134193</v>
+        <v>2366.69499433551</v>
       </c>
       <c r="R42" t="n">
-        <v>3429.81927815984</v>
+        <v>2352.589385361156</v>
       </c>
       <c r="S42" t="n">
-        <v>3297.823852792564</v>
+        <v>2220.593959993881</v>
       </c>
       <c r="T42" t="n">
-        <v>3121.476994082971</v>
+        <v>2044.247101284287</v>
       </c>
       <c r="U42" t="n">
-        <v>2911.424247166805</v>
+        <v>1834.194354368122</v>
       </c>
       <c r="V42" t="n">
-        <v>2688.884245537872</v>
+        <v>1611.654352739189</v>
       </c>
       <c r="W42" t="n">
-        <v>2458.766999671159</v>
+        <v>1381.537106872476</v>
       </c>
       <c r="X42" t="n">
-        <v>2269.45992202117</v>
+        <v>1192.230029222488</v>
       </c>
       <c r="Y42" t="n">
-        <v>2090.145705096677</v>
+        <v>1012.915812297995</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2861.902457981016</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="C43" t="n">
-        <v>2861.902457981016</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="D43" t="n">
-        <v>2861.902457981016</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="E43" t="n">
-        <v>2706.343645840218</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="F43" t="n">
-        <v>2706.343645840218</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="G43" t="n">
-        <v>2706.343645840218</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="H43" t="n">
-        <v>2552.042990466805</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="I43" t="n">
-        <v>2422.932694817714</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="J43" t="n">
-        <v>2422.932694817714</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="K43" t="n">
-        <v>2519.853566007969</v>
+        <v>165.799368932939</v>
       </c>
       <c r="L43" t="n">
-        <v>2703.285874515058</v>
+        <v>349.2316774400286</v>
       </c>
       <c r="M43" t="n">
-        <v>2909.931519212856</v>
+        <v>555.8773221378265</v>
       </c>
       <c r="N43" t="n">
-        <v>3112.991245399145</v>
+        <v>758.937048324115</v>
       </c>
       <c r="O43" t="n">
-        <v>3294.049258613678</v>
+        <v>939.9950615386488</v>
       </c>
       <c r="P43" t="n">
-        <v>3429.629797112361</v>
+        <v>1075.575600037331</v>
       </c>
       <c r="Q43" t="n">
-        <v>3443.924887134193</v>
+        <v>1089.870690059164</v>
       </c>
       <c r="R43" t="n">
-        <v>3443.924887134193</v>
+        <v>971.9266249857571</v>
       </c>
       <c r="S43" t="n">
-        <v>3443.924887134193</v>
+        <v>771.4193611989635</v>
       </c>
       <c r="T43" t="n">
-        <v>3208.771899681357</v>
+        <v>637.6404652158317</v>
       </c>
       <c r="U43" t="n">
-        <v>3208.771899681357</v>
+        <v>352.2088998115062</v>
       </c>
       <c r="V43" t="n">
-        <v>3208.771899681357</v>
+        <v>352.2088998115062</v>
       </c>
       <c r="W43" t="n">
-        <v>3208.771899681357</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="X43" t="n">
-        <v>3085.014519164372</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="Y43" t="n">
-        <v>2861.902457981016</v>
+        <v>68.87849774268386</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2266.37069760587</v>
+        <v>1667.112504841092</v>
       </c>
       <c r="C44" t="n">
-        <v>1873.1951961088</v>
+        <v>1273.937003344023</v>
       </c>
       <c r="D44" t="n">
-        <v>1749.232876447703</v>
+        <v>888.4958745606907</v>
       </c>
       <c r="E44" t="n">
-        <v>1346.649351564247</v>
+        <v>485.9123496772352</v>
       </c>
       <c r="F44" t="n">
-        <v>929.7549130942252</v>
+        <v>389.9368107352547</v>
       </c>
       <c r="G44" t="n">
-        <v>516.887506044666</v>
+        <v>389.9368107352547</v>
       </c>
       <c r="H44" t="n">
-        <v>195.8291930520953</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="I44" t="n">
         <v>68.87849774268386</v>
       </c>
       <c r="J44" t="n">
-        <v>238.0967623172014</v>
+        <v>238.0967623172015</v>
       </c>
       <c r="K44" t="n">
         <v>633.9009186270763</v>
@@ -7672,28 +7672,28 @@
         <v>3443.924887134193</v>
       </c>
       <c r="R44" t="n">
-        <v>3424.484656273308</v>
+        <v>3443.924887134193</v>
       </c>
       <c r="S44" t="n">
-        <v>3264.701354302154</v>
+        <v>3284.14158516304</v>
       </c>
       <c r="T44" t="n">
-        <v>3264.701354302154</v>
+        <v>3061.933870616776</v>
       </c>
       <c r="U44" t="n">
-        <v>3008.972252613748</v>
+        <v>2806.20476892837</v>
       </c>
       <c r="V44" t="n">
-        <v>2666.865443317266</v>
+        <v>2464.097959631888</v>
       </c>
       <c r="W44" t="n">
-        <v>2666.865443317266</v>
+        <v>2464.097959631888</v>
       </c>
       <c r="X44" t="n">
-        <v>2666.865443317266</v>
+        <v>2464.097959631888</v>
       </c>
       <c r="Y44" t="n">
-        <v>2666.865443317266</v>
+        <v>2067.607250552489</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1938.349370655716</v>
+        <v>861.1194778570339</v>
       </c>
       <c r="C45" t="n">
-        <v>1787.695140215808</v>
+        <v>710.4652474171261</v>
       </c>
       <c r="D45" t="n">
-        <v>1657.606172837289</v>
+        <v>580.3762800386064</v>
       </c>
       <c r="E45" t="n">
-        <v>1521.159681948177</v>
+        <v>443.9297891494941</v>
       </c>
       <c r="F45" t="n">
-        <v>1396.727875831308</v>
+        <v>319.4979830326259</v>
       </c>
       <c r="G45" t="n">
-        <v>1276.826083262108</v>
+        <v>199.5961904634257</v>
       </c>
       <c r="H45" t="n">
-        <v>1190.054859145058</v>
+        <v>112.8249663463758</v>
       </c>
       <c r="I45" t="n">
-        <v>1146.108390541366</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="J45" t="n">
-        <v>1225.633897348333</v>
+        <v>196.6263052874783</v>
       </c>
       <c r="K45" t="n">
-        <v>1570.382872573226</v>
+        <v>541.3752805123709</v>
       </c>
       <c r="L45" t="n">
-        <v>2087.577760185362</v>
+        <v>1058.570168124506</v>
       </c>
       <c r="M45" t="n">
-        <v>2754.592635243969</v>
+        <v>1123.992412251644</v>
       </c>
       <c r="N45" t="n">
-        <v>2754.592635243969</v>
+        <v>1123.992412251644</v>
       </c>
       <c r="O45" t="n">
-        <v>2754.592635243969</v>
+        <v>1677.362742445285</v>
       </c>
       <c r="P45" t="n">
-        <v>3189.789415919085</v>
+        <v>2112.559523120402</v>
       </c>
       <c r="Q45" t="n">
-        <v>3443.924887134193</v>
+        <v>2366.69499433551</v>
       </c>
       <c r="R45" t="n">
-        <v>3429.81927815984</v>
+        <v>2352.589385361156</v>
       </c>
       <c r="S45" t="n">
-        <v>3297.823852792564</v>
+        <v>2220.593959993881</v>
       </c>
       <c r="T45" t="n">
-        <v>3121.476994082971</v>
+        <v>2044.247101284287</v>
       </c>
       <c r="U45" t="n">
-        <v>2911.424247166805</v>
+        <v>1834.194354368122</v>
       </c>
       <c r="V45" t="n">
-        <v>2688.884245537872</v>
+        <v>1611.654352739189</v>
       </c>
       <c r="W45" t="n">
-        <v>2458.766999671159</v>
+        <v>1381.537106872476</v>
       </c>
       <c r="X45" t="n">
-        <v>2269.45992202117</v>
+        <v>1192.230029222488</v>
       </c>
       <c r="Y45" t="n">
-        <v>2090.145705096677</v>
+        <v>1012.915812297995</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>530.6270948432655</v>
+        <v>303.3067920228264</v>
       </c>
       <c r="C46" t="n">
-        <v>530.6270948432655</v>
+        <v>303.3067920228264</v>
       </c>
       <c r="D46" t="n">
-        <v>530.6270948432655</v>
+        <v>303.3067920228264</v>
       </c>
       <c r="E46" t="n">
-        <v>530.6270948432655</v>
+        <v>303.3067920228264</v>
       </c>
       <c r="F46" t="n">
-        <v>373.3011600562384</v>
+        <v>145.9808572357993</v>
       </c>
       <c r="G46" t="n">
-        <v>373.3011600562384</v>
+        <v>145.9808572357993</v>
       </c>
       <c r="H46" t="n">
-        <v>219.000504682825</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="I46" t="n">
-        <v>89.89020903373368</v>
+        <v>68.87849774268386</v>
       </c>
       <c r="J46" t="n">
         <v>68.87849774268386</v>
@@ -7830,28 +7830,28 @@
         <v>1089.870690059164</v>
       </c>
       <c r="R46" t="n">
-        <v>971.9266249857571</v>
+        <v>1089.870690059164</v>
       </c>
       <c r="S46" t="n">
-        <v>771.4193611989635</v>
+        <v>1089.870690059164</v>
       </c>
       <c r="T46" t="n">
-        <v>764.7074170602824</v>
+        <v>854.7177026063276</v>
       </c>
       <c r="U46" t="n">
-        <v>764.7074170602824</v>
+        <v>569.2861372020021</v>
       </c>
       <c r="V46" t="n">
-        <v>764.7074170602824</v>
+        <v>303.3067920228264</v>
       </c>
       <c r="W46" t="n">
-        <v>764.7074170602824</v>
+        <v>303.3067920228264</v>
       </c>
       <c r="X46" t="n">
-        <v>530.6270948432655</v>
+        <v>303.3067920228264</v>
       </c>
       <c r="Y46" t="n">
-        <v>530.6270948432655</v>
+        <v>303.3067920228264</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L2" t="n">
         <v>153.2481697304917</v>
@@ -7990,16 +7990,16 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>379.0794664759352</v>
+        <v>266.9255203461039</v>
       </c>
       <c r="O2" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P2" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.0574392996201</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,13 +8057,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>319.5579104714845</v>
       </c>
       <c r="L3" t="n">
-        <v>320.0213219950694</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
@@ -8072,10 +8072,10 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P3" t="n">
-        <v>307.7529874266315</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>320.9491282940651</v>
@@ -8218,25 +8218,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>373.0193783173885</v>
+        <v>260.8654321875572</v>
       </c>
       <c r="L5" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N5" t="n">
-        <v>379.0794664759353</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>224.860188122153</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8297,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M6" t="n">
         <v>322.3480971874631</v>
       </c>
       <c r="N6" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q6" t="n">
-        <v>197.4002179655265</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8467,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>213.6604073397399</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8534,25 +8534,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>376.26152725776</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>141.1970687720375</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,19 +8777,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>118.8305752767984</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>44.68334837209858</v>
       </c>
       <c r="O12" t="n">
-        <v>55.46528858317121</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>57.20921132565903</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.01807269104759</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,25 +9005,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>67.66382569185151</v>
+        <v>67.66382569185154</v>
       </c>
       <c r="K15" t="n">
-        <v>64.33448163367055</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>52.74750040090168</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>44.68334837209856</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>135.7940833376826</v>
       </c>
       <c r="P15" t="n">
-        <v>337.0637158954912</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>327.7205688679246</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>67.66382569185154</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>64.33448163367061</v>
       </c>
       <c r="L18" t="n">
-        <v>56.09186027729992</v>
+        <v>441.3155403710076</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>518.3930320835195</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>55.4652885831712</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>57.20921132565909</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>71.01807269104764</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>67.66382569185151</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>64.33448163367055</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>596.1000528219364</v>
+        <v>52.74750040090172</v>
       </c>
       <c r="N21" t="n">
-        <v>44.68334837209846</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>55.46528858317125</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>249.6728176285027</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>67.66382569185153</v>
       </c>
       <c r="K24" t="n">
-        <v>64.33448163367055</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>56.09186027729992</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>286.3901861750014</v>
+        <v>247.8687647159843</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>44.68334837209851</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9956,10 +9956,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>64.33448163367056</v>
       </c>
       <c r="L27" t="n">
-        <v>266.3034961375189</v>
+        <v>56.09186027729996</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
@@ -9968,10 +9968,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>55.4652885831712</v>
+        <v>613.9082125493425</v>
       </c>
       <c r="P27" t="n">
-        <v>57.20921132565903</v>
+        <v>57.20921132565906</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10199,10 +10199,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>118.8305752767979</v>
+        <v>52.74750040090171</v>
       </c>
       <c r="N30" t="n">
-        <v>44.68334837209846</v>
+        <v>110.7664232479947</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10427,16 +10427,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.11341279918531</v>
+        <v>67.66382569185153</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>64.33448163367056</v>
       </c>
       <c r="L33" t="n">
-        <v>56.09186027729992</v>
+        <v>441.3155403710076</v>
       </c>
       <c r="M33" t="n">
-        <v>52.74750040090167</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10445,10 +10445,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>57.20921132565906</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>71.01807269104761</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>67.66382569185153</v>
       </c>
       <c r="K36" t="n">
-        <v>64.33448163367055</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>319.0729026061464</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>52.74750040090171</v>
       </c>
       <c r="N36" t="n">
-        <v>44.68334837209846</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>57.20921132565906</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>259.3437853318052</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,25 +10904,25 @@
         <v>67.66382569185151</v>
       </c>
       <c r="K39" t="n">
-        <v>64.33448163367055</v>
+        <v>190.6371311824841</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>52.74750040090167</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>44.68334837209847</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>337.0637158954912</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>71.01807269104759</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>67.66382569185151</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>64.33448163367055</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>441.3155403710076</v>
       </c>
       <c r="M42" t="n">
-        <v>52.74750040090167</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>110.7664232479965</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>57.20921132565903</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>71.01807269104759</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11305,7 +11305,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>701.2411122488186</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
         <v>682.2612020826953</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>147.9926204463642</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,13 +11384,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>118.8305752767979</v>
       </c>
       <c r="N45" t="n">
-        <v>44.68334837209846</v>
+        <v>44.68334837209847</v>
       </c>
       <c r="O45" t="n">
-        <v>55.4652885831712</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>284.0918308528969</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>246.4696374774413</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>37.62219337545639</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>284.0918308528969</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>37.62219337545638</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.12647397058124</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.9266424199394</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>44.41652108692115</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>229.7887348817841</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>37.62219337545638</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.12647397058123</v>
+        <v>16.68090259565714</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>213.9653568823159</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>229.7887348817841</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>37.62219337545638</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>54.30309597111264</v>
+        <v>16.68090259565693</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>229.7887348817841</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.12647397058124</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>213.9653568823163</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>54.30309597111287</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>284.0918308528968</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.12647397058124</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>131.9266424199394</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>82.03871446237731</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>284.0918308528968</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>70.12647397058123</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>131.9266424199394</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>82.03871446237731</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>229.7887348817841</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>37.62219337545638</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>70.12647397058126</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>131.9266424199394</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>82.03871446237731</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>16.68090259565668</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>284.0918308528968</v>
+        <v>44.41652108692006</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>37.62219337545638</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>70.12647397058126</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>131.9266424199394</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>54.30309597111267</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>16.68090259565628</v>
       </c>
       <c r="H38" t="n">
         <v>229.7887348817841</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>37.62219337545638</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>302.6808492004424</v>
+        <v>77.3019451096942</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>317.8477298626451</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>125.6811883563173</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>19.24582855227625</v>
       </c>
       <c r="S41" t="n">
         <v>158.1854689514421</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9856374008003</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -25803,10 +25803,10 @@
         <v>166.4403550405585</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.7576488196792</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>127.8191926926004</v>
       </c>
       <c r="J43" t="n">
         <v>20.80159417813933</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>116.7646244226723</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>198.5021911489256</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>100.360350555007</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5772497502822</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>109.2197122830316</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>258.8640210310126</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>317.7097105327612</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.7387329790637</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>125.6811883563173</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>19.24582855227625</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9856374008003</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26040,13 +26040,13 @@
         <v>166.4403550405585</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>76.42631292149494</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>127.8191926926004</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>20.80159417813933</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>116.7646244226723</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>198.5021911489256</v>
       </c>
       <c r="T46" t="n">
-        <v>226.1566328810132</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5772497502822</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>574950.9508193573</v>
+        <v>574950.9508193571</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>574950.9508193571</v>
+        <v>574950.9508193573</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>631162.6233267491</v>
+      </c>
+      <c r="C2" t="n">
+        <v>631162.6233267485</v>
+      </c>
+      <c r="D2" t="n">
         <v>631162.6233267486</v>
-      </c>
-      <c r="C2" t="n">
-        <v>631162.6233267486</v>
-      </c>
-      <c r="D2" t="n">
-        <v>631162.623326749</v>
       </c>
       <c r="E2" t="n">
         <v>611375.627307845</v>
@@ -26328,34 +26328,34 @@
         <v>611375.6273078449</v>
       </c>
       <c r="G2" t="n">
+        <v>611375.627307845</v>
+      </c>
+      <c r="H2" t="n">
         <v>611375.6273078452</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>611375.627307845</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>611375.6273078449</v>
-      </c>
-      <c r="J2" t="n">
-        <v>611375.627307845</v>
       </c>
       <c r="K2" t="n">
         <v>611375.6273078452</v>
       </c>
       <c r="L2" t="n">
-        <v>611375.6273078449</v>
+        <v>611375.627307845</v>
       </c>
       <c r="M2" t="n">
         <v>611375.627307845</v>
       </c>
       <c r="N2" t="n">
-        <v>611375.627307845</v>
+        <v>611375.6273078448</v>
       </c>
       <c r="O2" t="n">
-        <v>473939.4927183833</v>
+        <v>473939.4927183831</v>
       </c>
       <c r="P2" t="n">
-        <v>473939.4927183834</v>
+        <v>473939.4927183832</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>112277.5710758672</v>
       </c>
       <c r="E3" t="n">
-        <v>209368.7092222035</v>
+        <v>209368.7092222033</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>130615.1053637351</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>91480.03329093235</v>
+        <v>91480.03329093232</v>
       </c>
       <c r="M3" t="n">
-        <v>67177.69687853399</v>
+        <v>67177.69687853397</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>308406.9706226547</v>
       </c>
       <c r="C4" t="n">
-        <v>308406.9706226546</v>
+        <v>308406.9706226547</v>
       </c>
       <c r="D4" t="n">
         <v>245913.7790454219</v>
@@ -26459,7 +26459,7 @@
         <v>101603.2534413784</v>
       </c>
       <c r="P4" t="n">
-        <v>101603.2534413784</v>
+        <v>101603.2534413783</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>61336.27479942214</v>
+        <v>61336.27479942212</v>
       </c>
       <c r="F5" t="n">
-        <v>61336.27479942214</v>
+        <v>61336.27479942212</v>
       </c>
       <c r="G5" t="n">
-        <v>61336.27479942214</v>
+        <v>61336.27479942213</v>
       </c>
       <c r="H5" t="n">
-        <v>61336.27479942214</v>
+        <v>61336.27479942213</v>
       </c>
       <c r="I5" t="n">
-        <v>61336.27479942214</v>
+        <v>61336.27479942213</v>
       </c>
       <c r="J5" t="n">
-        <v>61336.27479942214</v>
+        <v>61336.27479942213</v>
       </c>
       <c r="K5" t="n">
         <v>61336.27479942214</v>
       </c>
       <c r="L5" t="n">
-        <v>61336.27479942214</v>
+        <v>61336.27479942213</v>
       </c>
       <c r="M5" t="n">
         <v>61336.27479942214</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198081.2135444717</v>
+        <v>198081.2135444722</v>
       </c>
       <c r="C6" t="n">
-        <v>275146.4254156944</v>
+        <v>275146.4254156942</v>
       </c>
       <c r="D6" t="n">
-        <v>203385.8159282867</v>
+        <v>203385.8159282863</v>
       </c>
       <c r="E6" t="n">
-        <v>149206.1010178378</v>
+        <v>149149.5667434982</v>
       </c>
       <c r="F6" t="n">
-        <v>358574.8102400411</v>
+        <v>358518.2759657014</v>
       </c>
       <c r="G6" t="n">
-        <v>358574.8102400413</v>
+        <v>358518.2759657015</v>
       </c>
       <c r="H6" t="n">
-        <v>358574.8102400412</v>
+        <v>358518.2759657016</v>
       </c>
       <c r="I6" t="n">
-        <v>358574.8102400411</v>
+        <v>358518.2759657015</v>
       </c>
       <c r="J6" t="n">
-        <v>227959.7048763061</v>
+        <v>227903.1706019663</v>
       </c>
       <c r="K6" t="n">
-        <v>358574.8102400413</v>
+        <v>358518.2759657016</v>
       </c>
       <c r="L6" t="n">
-        <v>267094.7769491088</v>
+        <v>267038.2426747692</v>
       </c>
       <c r="M6" t="n">
-        <v>291397.1133615072</v>
+        <v>291340.5790871676</v>
       </c>
       <c r="N6" t="n">
-        <v>358574.8102400412</v>
+        <v>358518.2759657013</v>
       </c>
       <c r="O6" t="n">
-        <v>318402.9961266288</v>
+        <v>317953.7871820334</v>
       </c>
       <c r="P6" t="n">
-        <v>318402.9961266289</v>
+        <v>317953.7871820334</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>88.05899498086092</v>
       </c>
       <c r="K2" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="L2" t="n">
         <v>88.0589949808609</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>72.73325073102778</v>
+      </c>
+      <c r="F3" t="n">
+        <v>72.73325073102782</v>
+      </c>
+      <c r="G3" t="n">
+        <v>72.73325073102782</v>
+      </c>
+      <c r="H3" t="n">
+        <v>72.73325073102788</v>
+      </c>
+      <c r="I3" t="n">
+        <v>72.73325073102791</v>
+      </c>
+      <c r="J3" t="n">
+        <v>72.73325073102791</v>
+      </c>
+      <c r="K3" t="n">
+        <v>72.73325073102791</v>
+      </c>
+      <c r="L3" t="n">
+        <v>72.73325073102791</v>
+      </c>
+      <c r="M3" t="n">
+        <v>72.73325073102791</v>
+      </c>
+      <c r="N3" t="n">
         <v>72.73325073102797</v>
       </c>
-      <c r="F3" t="n">
+      <c r="O3" t="n">
         <v>72.73325073102797</v>
       </c>
-      <c r="G3" t="n">
-        <v>72.73325073102798</v>
-      </c>
-      <c r="H3" t="n">
-        <v>72.73325073102798</v>
-      </c>
-      <c r="I3" t="n">
-        <v>72.73325073102798</v>
-      </c>
-      <c r="J3" t="n">
-        <v>72.73325073102798</v>
-      </c>
-      <c r="K3" t="n">
-        <v>72.73325073102798</v>
-      </c>
-      <c r="L3" t="n">
-        <v>72.73325073102798</v>
-      </c>
-      <c r="M3" t="n">
-        <v>72.73325073102798</v>
-      </c>
-      <c r="N3" t="n">
-        <v>72.73325073102798</v>
-      </c>
-      <c r="O3" t="n">
-        <v>72.73325073102798</v>
-      </c>
       <c r="P3" t="n">
-        <v>72.73325073102798</v>
+        <v>72.73325073102797</v>
       </c>
     </row>
     <row r="4">
@@ -26798,28 +26798,28 @@
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>860.9812217835483</v>
+        <v>860.9812217835481</v>
       </c>
       <c r="F4" t="n">
-        <v>860.9812217835483</v>
+        <v>860.9812217835481</v>
       </c>
       <c r="G4" t="n">
-        <v>860.9812217835483</v>
+        <v>860.9812217835482</v>
       </c>
       <c r="H4" t="n">
-        <v>860.9812217835483</v>
+        <v>860.9812217835482</v>
       </c>
       <c r="I4" t="n">
-        <v>860.9812217835483</v>
+        <v>860.9812217835482</v>
       </c>
       <c r="J4" t="n">
-        <v>860.9812217835483</v>
+        <v>860.9812217835482</v>
       </c>
       <c r="K4" t="n">
-        <v>860.9812217835483</v>
+        <v>860.9812217835482</v>
       </c>
       <c r="L4" t="n">
-        <v>860.9812217835483</v>
+        <v>860.9812217835482</v>
       </c>
       <c r="M4" t="n">
         <v>860.9812217835483</v>
@@ -26934,7 +26934,7 @@
         <v>88.0589949808609</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>72.73325073102797</v>
+        <v>72.73325073102778</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>361.4511511311439</v>
       </c>
       <c r="E4" t="n">
-        <v>269.5690955142533</v>
+        <v>269.5690955142531</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>229.9609751381511</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>88.0589949808609</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>361.4511511311439</v>
       </c>
       <c r="M4" t="n">
-        <v>269.5690955142533</v>
+        <v>269.5690955142531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>256.8199797178487</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V2" t="n">
-        <v>149.1973576220585</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.21814208904536</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>80.72393255687025</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -27523,10 +27523,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,25 +27539,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>29.13668869888799</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27593,16 +27593,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>135.5026525567492</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27627,16 +27627,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
+        <v>219.2069951405155</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>179.0701528187257</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>200.3248151918458</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>128.5327396574402</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.44095234799083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>64.34515061910655</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>215.748142105495</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>1.778543856695535</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>153.7885616961714</v>
+        <v>356.2499657818646</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>94.26662855483956</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28137,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>19.24582855227625</v>
+        <v>19.2458285522763</v>
       </c>
       <c r="S11" t="n">
         <v>88.05899498086092</v>
@@ -28374,7 +28374,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>19.24582855227625</v>
+        <v>19.24582855227629</v>
       </c>
       <c r="S14" t="n">
         <v>88.05899498086092</v>
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>19.24582855227625</v>
+        <v>19.24582855227629</v>
       </c>
       <c r="S17" t="n">
         <v>88.05899498086092</v>
@@ -28848,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>19.24582855227625</v>
+        <v>19.24582855227627</v>
       </c>
       <c r="S20" t="n">
         <v>88.05899498086092</v>
@@ -28985,7 +28985,7 @@
         <v>88.05899498086092</v>
       </c>
       <c r="K22" t="n">
-        <v>88.05899498086097</v>
+        <v>88.05899498086092</v>
       </c>
       <c r="L22" t="n">
         <v>88.05899498086092</v>
@@ -28994,7 +28994,7 @@
         <v>88.05899498086092</v>
       </c>
       <c r="N22" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086106</v>
       </c>
       <c r="O22" t="n">
         <v>88.05899498086092</v>
@@ -29085,7 +29085,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>19.24582855227625</v>
+        <v>19.24582855227627</v>
       </c>
       <c r="S23" t="n">
         <v>88.05899498086092</v>
@@ -29219,7 +29219,7 @@
         <v>88.05899498086092</v>
       </c>
       <c r="J25" t="n">
-        <v>88.05899498086097</v>
+        <v>88.05899498086092</v>
       </c>
       <c r="K25" t="n">
         <v>88.05899498086092</v>
@@ -29237,7 +29237,7 @@
         <v>88.05899498086092</v>
       </c>
       <c r="P25" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086089</v>
       </c>
       <c r="Q25" t="n">
         <v>88.05899498086092</v>
@@ -29322,7 +29322,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>19.24582855227625</v>
+        <v>19.24582855227627</v>
       </c>
       <c r="S26" t="n">
         <v>88.05899498086092</v>
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="C29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="D29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="E29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="F29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="G29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="H29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="I29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29559,28 +29559,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>19.24582855227625</v>
+        <v>19.24582855227627</v>
       </c>
       <c r="S29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="T29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="U29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="V29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="W29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="X29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="Y29" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="C31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="D31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="E31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="F31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="G31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="H31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="I31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="J31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="K31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="L31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="M31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="N31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="O31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="P31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="Q31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="R31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="S31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="T31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="U31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="V31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="W31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="X31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
       <c r="Y31" t="n">
-        <v>88.05899498086092</v>
+        <v>88.05899498086093</v>
       </c>
     </row>
     <row r="32">
@@ -29796,7 +29796,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>19.24582855227625</v>
+        <v>19.24582855227627</v>
       </c>
       <c r="S32" t="n">
         <v>88.0589949808609</v>
@@ -30033,7 +30033,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>19.24582855227625</v>
+        <v>19.24582855227627</v>
       </c>
       <c r="S35" t="n">
         <v>88.0589949808609</v>
@@ -30173,13 +30173,13 @@
         <v>88.0589949808609</v>
       </c>
       <c r="L37" t="n">
-        <v>88.058994980861</v>
+        <v>88.0589949808609</v>
       </c>
       <c r="M37" t="n">
         <v>88.0589949808609</v>
       </c>
       <c r="N37" t="n">
-        <v>88.0589949808609</v>
+        <v>88.05899498086106</v>
       </c>
       <c r="O37" t="n">
         <v>88.0589949808609</v>
@@ -30404,7 +30404,7 @@
         <v>88.0589949808609</v>
       </c>
       <c r="J40" t="n">
-        <v>88.05899498086097</v>
+        <v>88.0589949808609</v>
       </c>
       <c r="K40" t="n">
         <v>88.0589949808609</v>
@@ -30416,7 +30416,7 @@
         <v>88.0589949808609</v>
       </c>
       <c r="N40" t="n">
-        <v>88.0589949808609</v>
+        <v>88.05899498086103</v>
       </c>
       <c r="O40" t="n">
         <v>88.0589949808609</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2923949778131775</v>
+        <v>0.2923949778131768</v>
       </c>
       <c r="H11" t="n">
-        <v>2.994490066529205</v>
+        <v>2.994490066529198</v>
       </c>
       <c r="I11" t="n">
-        <v>11.27255738214254</v>
+        <v>11.27255738214251</v>
       </c>
       <c r="J11" t="n">
-        <v>24.8166582481712</v>
+        <v>24.81665824817114</v>
       </c>
       <c r="K11" t="n">
-        <v>37.19373765900301</v>
+        <v>37.19373765900291</v>
       </c>
       <c r="L11" t="n">
-        <v>46.14212046125305</v>
+        <v>46.14212046125294</v>
       </c>
       <c r="M11" t="n">
-        <v>51.34199964793815</v>
+        <v>51.34199964793802</v>
       </c>
       <c r="N11" t="n">
-        <v>52.17276687864984</v>
+        <v>52.17276687864971</v>
       </c>
       <c r="O11" t="n">
-        <v>49.26526431802005</v>
+        <v>49.26526431801993</v>
       </c>
       <c r="P11" t="n">
-        <v>42.04676330325723</v>
+        <v>42.04676330325712</v>
       </c>
       <c r="Q11" t="n">
-        <v>31.5753681603228</v>
+        <v>31.57536816032272</v>
       </c>
       <c r="R11" t="n">
-        <v>18.36715602505703</v>
+        <v>18.36715602505698</v>
       </c>
       <c r="S11" t="n">
-        <v>6.66295055691779</v>
+        <v>6.662950556917773</v>
       </c>
       <c r="T11" t="n">
-        <v>1.279959015377185</v>
+        <v>1.279959015377182</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0233915982250542</v>
+        <v>0.02339159822505414</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1564451053459847</v>
+        <v>0.1564451053459843</v>
       </c>
       <c r="H12" t="n">
-        <v>1.510930359525694</v>
+        <v>1.510930359525691</v>
       </c>
       <c r="I12" t="n">
-        <v>5.386377530552544</v>
+        <v>5.386377530552529</v>
       </c>
       <c r="J12" t="n">
-        <v>14.78063164148183</v>
+        <v>14.78063164148179</v>
       </c>
       <c r="K12" t="n">
-        <v>25.2624536996628</v>
+        <v>25.26245369966274</v>
       </c>
       <c r="L12" t="n">
-        <v>33.9684865796183</v>
+        <v>33.96848657961822</v>
       </c>
       <c r="M12" t="n">
-        <v>39.63962164841023</v>
+        <v>39.63962164841013</v>
       </c>
       <c r="N12" t="n">
-        <v>40.68876448206819</v>
+        <v>40.68876448206808</v>
       </c>
       <c r="O12" t="n">
-        <v>37.22227030571768</v>
+        <v>37.22227030571759</v>
       </c>
       <c r="P12" t="n">
-        <v>29.87415349365562</v>
+        <v>29.87415349365554</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.9700804648664</v>
+        <v>19.97008046486635</v>
       </c>
       <c r="R12" t="n">
-        <v>9.713319786305965</v>
+        <v>9.71331978630594</v>
       </c>
       <c r="S12" t="n">
-        <v>2.905899215527389</v>
+        <v>2.905899215527382</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6305835605831573</v>
+        <v>0.6305835605831557</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01029244114118321</v>
+        <v>0.01029244114118318</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1311583209903783</v>
+        <v>0.1311583209903779</v>
       </c>
       <c r="H13" t="n">
-        <v>1.166116708441728</v>
+        <v>1.166116708441725</v>
       </c>
       <c r="I13" t="n">
-        <v>3.944288416692468</v>
+        <v>3.944288416692458</v>
       </c>
       <c r="J13" t="n">
-        <v>9.272893294019743</v>
+        <v>9.27289329401972</v>
       </c>
       <c r="K13" t="n">
-        <v>15.23821220233667</v>
+        <v>15.23821220233664</v>
       </c>
       <c r="L13" t="n">
-        <v>19.49966528615133</v>
+        <v>19.49966528615128</v>
       </c>
       <c r="M13" t="n">
-        <v>20.55966298942811</v>
+        <v>20.55966298942806</v>
       </c>
       <c r="N13" t="n">
-        <v>20.07080015664581</v>
+        <v>20.07080015664576</v>
       </c>
       <c r="O13" t="n">
-        <v>18.53863249780366</v>
+        <v>18.53863249780361</v>
       </c>
       <c r="P13" t="n">
-        <v>15.86300274959993</v>
+        <v>15.86300274959989</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.98272086038522</v>
+        <v>10.98272086038519</v>
       </c>
       <c r="R13" t="n">
-        <v>5.897355051076462</v>
+        <v>5.897355051076447</v>
       </c>
       <c r="S13" t="n">
-        <v>2.285731830350501</v>
+        <v>2.285731830350495</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5604037351407071</v>
+        <v>0.5604037351407056</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007154090235838823</v>
+        <v>0.007154090235838805</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2923949778131775</v>
+        <v>0.292394977813177</v>
       </c>
       <c r="H14" t="n">
-        <v>2.994490066529205</v>
+        <v>2.994490066529199</v>
       </c>
       <c r="I14" t="n">
-        <v>11.27255738214254</v>
+        <v>11.27255738214252</v>
       </c>
       <c r="J14" t="n">
-        <v>24.8166582481712</v>
+        <v>24.81665824817115</v>
       </c>
       <c r="K14" t="n">
-        <v>37.19373765900301</v>
+        <v>37.19373765900294</v>
       </c>
       <c r="L14" t="n">
-        <v>46.14212046125305</v>
+        <v>46.14212046125296</v>
       </c>
       <c r="M14" t="n">
-        <v>51.34199964793815</v>
+        <v>51.34199964793805</v>
       </c>
       <c r="N14" t="n">
-        <v>52.17276687864984</v>
+        <v>52.17276687864974</v>
       </c>
       <c r="O14" t="n">
-        <v>49.26526431802005</v>
+        <v>49.26526431801996</v>
       </c>
       <c r="P14" t="n">
-        <v>42.04676330325723</v>
+        <v>42.04676330325714</v>
       </c>
       <c r="Q14" t="n">
-        <v>31.5753681603228</v>
+        <v>31.57536816032274</v>
       </c>
       <c r="R14" t="n">
-        <v>18.36715602505703</v>
+        <v>18.36715602505699</v>
       </c>
       <c r="S14" t="n">
-        <v>6.66295055691779</v>
+        <v>6.662950556917776</v>
       </c>
       <c r="T14" t="n">
-        <v>1.279959015377185</v>
+        <v>1.279959015377183</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0233915982250542</v>
+        <v>0.02339159822505415</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1564451053459847</v>
+        <v>0.1564451053459844</v>
       </c>
       <c r="H15" t="n">
-        <v>1.510930359525694</v>
+        <v>1.510930359525692</v>
       </c>
       <c r="I15" t="n">
-        <v>5.386377530552544</v>
+        <v>5.386377530552533</v>
       </c>
       <c r="J15" t="n">
-        <v>14.78063164148183</v>
+        <v>14.7806316414818</v>
       </c>
       <c r="K15" t="n">
-        <v>25.2624536996628</v>
+        <v>25.26245369966275</v>
       </c>
       <c r="L15" t="n">
-        <v>33.9684865796183</v>
+        <v>33.96848657961824</v>
       </c>
       <c r="M15" t="n">
-        <v>39.63962164841023</v>
+        <v>39.63962164841016</v>
       </c>
       <c r="N15" t="n">
-        <v>40.68876448206819</v>
+        <v>40.6887644820681</v>
       </c>
       <c r="O15" t="n">
-        <v>37.22227030571768</v>
+        <v>37.22227030571761</v>
       </c>
       <c r="P15" t="n">
-        <v>29.87415349365562</v>
+        <v>29.87415349365556</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.9700804648664</v>
+        <v>19.97008046486636</v>
       </c>
       <c r="R15" t="n">
-        <v>9.713319786305965</v>
+        <v>9.713319786305947</v>
       </c>
       <c r="S15" t="n">
-        <v>2.905899215527389</v>
+        <v>2.905899215527383</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6305835605831573</v>
+        <v>0.6305835605831561</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01029244114118321</v>
+        <v>0.01029244114118319</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1311583209903783</v>
+        <v>0.131158320990378</v>
       </c>
       <c r="H16" t="n">
-        <v>1.166116708441728</v>
+        <v>1.166116708441725</v>
       </c>
       <c r="I16" t="n">
-        <v>3.944288416692468</v>
+        <v>3.94428841669246</v>
       </c>
       <c r="J16" t="n">
-        <v>9.272893294019743</v>
+        <v>9.272893294019726</v>
       </c>
       <c r="K16" t="n">
-        <v>15.23821220233667</v>
+        <v>15.23821220233664</v>
       </c>
       <c r="L16" t="n">
-        <v>19.49966528615133</v>
+        <v>19.49966528615129</v>
       </c>
       <c r="M16" t="n">
-        <v>20.55966298942811</v>
+        <v>20.55966298942807</v>
       </c>
       <c r="N16" t="n">
-        <v>20.07080015664581</v>
+        <v>20.07080015664577</v>
       </c>
       <c r="O16" t="n">
-        <v>18.53863249780366</v>
+        <v>18.53863249780362</v>
       </c>
       <c r="P16" t="n">
-        <v>15.86300274959993</v>
+        <v>15.8630027495999</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.98272086038522</v>
+        <v>10.9827208603852</v>
       </c>
       <c r="R16" t="n">
-        <v>5.897355051076462</v>
+        <v>5.897355051076451</v>
       </c>
       <c r="S16" t="n">
-        <v>2.285731830350501</v>
+        <v>2.285731830350496</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5604037351407071</v>
+        <v>0.560403735140706</v>
       </c>
       <c r="U16" t="n">
-        <v>0.007154090235838823</v>
+        <v>0.00715409023583881</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2923949778131776</v>
+        <v>0.292394977813177</v>
       </c>
       <c r="H17" t="n">
-        <v>2.994490066529206</v>
+        <v>2.994490066529199</v>
       </c>
       <c r="I17" t="n">
-        <v>11.27255738214254</v>
+        <v>11.27255738214252</v>
       </c>
       <c r="J17" t="n">
-        <v>24.8166582481712</v>
+        <v>24.81665824817115</v>
       </c>
       <c r="K17" t="n">
-        <v>37.19373765900302</v>
+        <v>37.19373765900294</v>
       </c>
       <c r="L17" t="n">
-        <v>46.14212046125306</v>
+        <v>46.14212046125296</v>
       </c>
       <c r="M17" t="n">
-        <v>51.34199964793815</v>
+        <v>51.34199964793805</v>
       </c>
       <c r="N17" t="n">
-        <v>52.17276687864985</v>
+        <v>52.17276687864974</v>
       </c>
       <c r="O17" t="n">
-        <v>49.26526431802007</v>
+        <v>49.26526431801996</v>
       </c>
       <c r="P17" t="n">
-        <v>42.04676330325724</v>
+        <v>42.04676330325714</v>
       </c>
       <c r="Q17" t="n">
-        <v>31.5753681603228</v>
+        <v>31.57536816032274</v>
       </c>
       <c r="R17" t="n">
-        <v>18.36715602505703</v>
+        <v>18.36715602505699</v>
       </c>
       <c r="S17" t="n">
-        <v>6.66295055691779</v>
+        <v>6.662950556917776</v>
       </c>
       <c r="T17" t="n">
-        <v>1.279959015377186</v>
+        <v>1.279959015377183</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0233915982250542</v>
+        <v>0.02339159822505415</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1564451053459847</v>
+        <v>0.1564451053459844</v>
       </c>
       <c r="H18" t="n">
-        <v>1.510930359525695</v>
+        <v>1.510930359525692</v>
       </c>
       <c r="I18" t="n">
-        <v>5.386377530552545</v>
+        <v>5.386377530552533</v>
       </c>
       <c r="J18" t="n">
-        <v>14.78063164148183</v>
+        <v>14.7806316414818</v>
       </c>
       <c r="K18" t="n">
-        <v>25.26245369966281</v>
+        <v>25.26245369966275</v>
       </c>
       <c r="L18" t="n">
-        <v>33.96848657961831</v>
+        <v>33.96848657961824</v>
       </c>
       <c r="M18" t="n">
-        <v>39.63962164841024</v>
+        <v>39.63962164841016</v>
       </c>
       <c r="N18" t="n">
-        <v>40.68876448206819</v>
+        <v>40.6887644820681</v>
       </c>
       <c r="O18" t="n">
-        <v>37.22227030571769</v>
+        <v>37.22227030571761</v>
       </c>
       <c r="P18" t="n">
-        <v>29.87415349365563</v>
+        <v>29.87415349365556</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.9700804648664</v>
+        <v>19.97008046486636</v>
       </c>
       <c r="R18" t="n">
-        <v>9.713319786305966</v>
+        <v>9.713319786305947</v>
       </c>
       <c r="S18" t="n">
-        <v>2.90589921552739</v>
+        <v>2.905899215527383</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6305835605831575</v>
+        <v>0.6305835605831561</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01029244114118321</v>
+        <v>0.01029244114118319</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1311583209903783</v>
+        <v>0.131158320990378</v>
       </c>
       <c r="H19" t="n">
-        <v>1.166116708441728</v>
+        <v>1.166116708441725</v>
       </c>
       <c r="I19" t="n">
-        <v>3.944288416692469</v>
+        <v>3.94428841669246</v>
       </c>
       <c r="J19" t="n">
-        <v>9.272893294019745</v>
+        <v>9.272893294019726</v>
       </c>
       <c r="K19" t="n">
-        <v>15.23821220233668</v>
+        <v>15.23821220233664</v>
       </c>
       <c r="L19" t="n">
-        <v>19.49966528615134</v>
+        <v>19.49966528615129</v>
       </c>
       <c r="M19" t="n">
-        <v>20.55966298942812</v>
+        <v>20.55966298942807</v>
       </c>
       <c r="N19" t="n">
-        <v>20.07080015664581</v>
+        <v>20.07080015664577</v>
       </c>
       <c r="O19" t="n">
-        <v>18.53863249780366</v>
+        <v>18.53863249780362</v>
       </c>
       <c r="P19" t="n">
-        <v>15.86300274959993</v>
+        <v>15.8630027495999</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.98272086038522</v>
+        <v>10.9827208603852</v>
       </c>
       <c r="R19" t="n">
-        <v>5.897355051076463</v>
+        <v>5.897355051076451</v>
       </c>
       <c r="S19" t="n">
-        <v>2.285731830350501</v>
+        <v>2.285731830350496</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5604037351407072</v>
+        <v>0.560403735140706</v>
       </c>
       <c r="U19" t="n">
-        <v>0.007154090235838825</v>
+        <v>0.00715409023583881</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2923949778131776</v>
+        <v>0.2923949778131772</v>
       </c>
       <c r="H20" t="n">
-        <v>2.994490066529206</v>
+        <v>2.994490066529202</v>
       </c>
       <c r="I20" t="n">
-        <v>11.27255738214254</v>
+        <v>11.27255738214252</v>
       </c>
       <c r="J20" t="n">
-        <v>24.8166582481712</v>
+        <v>24.81665824817117</v>
       </c>
       <c r="K20" t="n">
-        <v>37.19373765900302</v>
+        <v>37.19373765900297</v>
       </c>
       <c r="L20" t="n">
-        <v>46.14212046125306</v>
+        <v>46.142120461253</v>
       </c>
       <c r="M20" t="n">
-        <v>51.34199964793815</v>
+        <v>51.34199964793809</v>
       </c>
       <c r="N20" t="n">
-        <v>52.17276687864985</v>
+        <v>52.17276687864978</v>
       </c>
       <c r="O20" t="n">
-        <v>49.26526431802007</v>
+        <v>49.26526431801999</v>
       </c>
       <c r="P20" t="n">
-        <v>42.04676330325724</v>
+        <v>42.04676330325718</v>
       </c>
       <c r="Q20" t="n">
-        <v>31.5753681603228</v>
+        <v>31.57536816032276</v>
       </c>
       <c r="R20" t="n">
-        <v>18.36715602505703</v>
+        <v>18.36715602505701</v>
       </c>
       <c r="S20" t="n">
-        <v>6.66295055691779</v>
+        <v>6.662950556917782</v>
       </c>
       <c r="T20" t="n">
-        <v>1.279959015377186</v>
+        <v>1.279959015377184</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0233915982250542</v>
+        <v>0.02339159822505417</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1564451053459847</v>
+        <v>0.1564451053459845</v>
       </c>
       <c r="H21" t="n">
-        <v>1.510930359525695</v>
+        <v>1.510930359525693</v>
       </c>
       <c r="I21" t="n">
-        <v>5.386377530552545</v>
+        <v>5.386377530552537</v>
       </c>
       <c r="J21" t="n">
-        <v>14.78063164148183</v>
+        <v>14.78063164148181</v>
       </c>
       <c r="K21" t="n">
-        <v>25.26245369966281</v>
+        <v>25.26245369966277</v>
       </c>
       <c r="L21" t="n">
-        <v>33.96848657961831</v>
+        <v>33.96848657961826</v>
       </c>
       <c r="M21" t="n">
-        <v>39.63962164841024</v>
+        <v>39.63962164841019</v>
       </c>
       <c r="N21" t="n">
-        <v>40.68876448206819</v>
+        <v>40.68876448206814</v>
       </c>
       <c r="O21" t="n">
-        <v>37.22227030571769</v>
+        <v>37.22227030571764</v>
       </c>
       <c r="P21" t="n">
-        <v>29.87415349365563</v>
+        <v>29.87415349365559</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.9700804648664</v>
+        <v>19.97008046486637</v>
       </c>
       <c r="R21" t="n">
-        <v>9.713319786305966</v>
+        <v>9.713319786305954</v>
       </c>
       <c r="S21" t="n">
-        <v>2.90589921552739</v>
+        <v>2.905899215527386</v>
       </c>
       <c r="T21" t="n">
-        <v>0.6305835605831575</v>
+        <v>0.6305835605831566</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01029244114118321</v>
+        <v>0.01029244114118319</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1311583209903783</v>
+        <v>0.1311583209903781</v>
       </c>
       <c r="H22" t="n">
-        <v>1.166116708441728</v>
+        <v>1.166116708441726</v>
       </c>
       <c r="I22" t="n">
-        <v>3.944288416692469</v>
+        <v>3.944288416692463</v>
       </c>
       <c r="J22" t="n">
-        <v>9.272893294019745</v>
+        <v>9.272893294019733</v>
       </c>
       <c r="K22" t="n">
-        <v>15.23821220233668</v>
+        <v>15.23821220233666</v>
       </c>
       <c r="L22" t="n">
-        <v>19.49966528615134</v>
+        <v>19.49966528615131</v>
       </c>
       <c r="M22" t="n">
-        <v>20.55966298942812</v>
+        <v>20.55966298942809</v>
       </c>
       <c r="N22" t="n">
-        <v>20.07080015664581</v>
+        <v>20.07080015664579</v>
       </c>
       <c r="O22" t="n">
-        <v>18.53863249780366</v>
+        <v>18.53863249780364</v>
       </c>
       <c r="P22" t="n">
-        <v>15.86300274959993</v>
+        <v>15.86300274959991</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.98272086038522</v>
+        <v>10.98272086038521</v>
       </c>
       <c r="R22" t="n">
-        <v>5.897355051076463</v>
+        <v>5.897355051076455</v>
       </c>
       <c r="S22" t="n">
-        <v>2.285731830350501</v>
+        <v>2.285731830350498</v>
       </c>
       <c r="T22" t="n">
-        <v>0.5604037351407072</v>
+        <v>0.5604037351407064</v>
       </c>
       <c r="U22" t="n">
-        <v>0.007154090235838825</v>
+        <v>0.007154090235838816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2923949778131776</v>
+        <v>0.2923949778131773</v>
       </c>
       <c r="H23" t="n">
-        <v>2.994490066529206</v>
+        <v>2.994490066529203</v>
       </c>
       <c r="I23" t="n">
-        <v>11.27255738214254</v>
+        <v>11.27255738214253</v>
       </c>
       <c r="J23" t="n">
-        <v>24.8166582481712</v>
+        <v>24.81665824817118</v>
       </c>
       <c r="K23" t="n">
-        <v>37.19373765900302</v>
+        <v>37.19373765900298</v>
       </c>
       <c r="L23" t="n">
-        <v>46.14212046125306</v>
+        <v>46.14212046125301</v>
       </c>
       <c r="M23" t="n">
-        <v>51.34199964793815</v>
+        <v>51.3419996479381</v>
       </c>
       <c r="N23" t="n">
-        <v>52.17276687864985</v>
+        <v>52.1727668786498</v>
       </c>
       <c r="O23" t="n">
-        <v>49.26526431802007</v>
+        <v>49.26526431802002</v>
       </c>
       <c r="P23" t="n">
-        <v>42.04676330325724</v>
+        <v>42.04676330325719</v>
       </c>
       <c r="Q23" t="n">
-        <v>31.5753681603228</v>
+        <v>31.57536816032277</v>
       </c>
       <c r="R23" t="n">
-        <v>18.36715602505703</v>
+        <v>18.36715602505701</v>
       </c>
       <c r="S23" t="n">
-        <v>6.66295055691779</v>
+        <v>6.662950556917784</v>
       </c>
       <c r="T23" t="n">
-        <v>1.279959015377186</v>
+        <v>1.279959015377184</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0233915982250542</v>
+        <v>0.02339159822505418</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1564451053459847</v>
+        <v>0.1564451053459846</v>
       </c>
       <c r="H24" t="n">
-        <v>1.510930359525695</v>
+        <v>1.510930359525693</v>
       </c>
       <c r="I24" t="n">
-        <v>5.386377530552545</v>
+        <v>5.386377530552539</v>
       </c>
       <c r="J24" t="n">
-        <v>14.78063164148183</v>
+        <v>14.78063164148181</v>
       </c>
       <c r="K24" t="n">
-        <v>25.26245369966281</v>
+        <v>25.26245369966278</v>
       </c>
       <c r="L24" t="n">
-        <v>33.96848657961831</v>
+        <v>33.96848657961827</v>
       </c>
       <c r="M24" t="n">
-        <v>39.63962164841024</v>
+        <v>39.63962164841021</v>
       </c>
       <c r="N24" t="n">
-        <v>40.68876448206819</v>
+        <v>40.68876448206815</v>
       </c>
       <c r="O24" t="n">
-        <v>37.22227030571769</v>
+        <v>37.22227030571765</v>
       </c>
       <c r="P24" t="n">
-        <v>29.87415349365563</v>
+        <v>29.8741534936556</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.9700804648664</v>
+        <v>19.97008046486638</v>
       </c>
       <c r="R24" t="n">
-        <v>9.713319786305966</v>
+        <v>9.713319786305957</v>
       </c>
       <c r="S24" t="n">
-        <v>2.90589921552739</v>
+        <v>2.905899215527387</v>
       </c>
       <c r="T24" t="n">
-        <v>0.6305835605831575</v>
+        <v>0.6305835605831568</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01029244114118321</v>
+        <v>0.0102924411411832</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1311583209903783</v>
+        <v>0.1311583209903782</v>
       </c>
       <c r="H25" t="n">
-        <v>1.166116708441728</v>
+        <v>1.166116708441727</v>
       </c>
       <c r="I25" t="n">
-        <v>3.944288416692469</v>
+        <v>3.944288416692465</v>
       </c>
       <c r="J25" t="n">
-        <v>9.272893294019745</v>
+        <v>9.272893294019736</v>
       </c>
       <c r="K25" t="n">
-        <v>15.23821220233668</v>
+        <v>15.23821220233666</v>
       </c>
       <c r="L25" t="n">
-        <v>19.49966528615134</v>
+        <v>19.49966528615132</v>
       </c>
       <c r="M25" t="n">
-        <v>20.55966298942812</v>
+        <v>20.5596629894281</v>
       </c>
       <c r="N25" t="n">
-        <v>20.07080015664581</v>
+        <v>20.0708001566458</v>
       </c>
       <c r="O25" t="n">
-        <v>18.53863249780366</v>
+        <v>18.53863249780364</v>
       </c>
       <c r="P25" t="n">
-        <v>15.86300274959993</v>
+        <v>15.86300274959991</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.98272086038522</v>
+        <v>10.98272086038521</v>
       </c>
       <c r="R25" t="n">
-        <v>5.897355051076463</v>
+        <v>5.897355051076458</v>
       </c>
       <c r="S25" t="n">
-        <v>2.285731830350501</v>
+        <v>2.285731830350499</v>
       </c>
       <c r="T25" t="n">
-        <v>0.5604037351407072</v>
+        <v>0.5604037351407066</v>
       </c>
       <c r="U25" t="n">
-        <v>0.007154090235838825</v>
+        <v>0.007154090235838818</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2923949778131776</v>
+        <v>0.2923949778131773</v>
       </c>
       <c r="H26" t="n">
-        <v>2.994490066529206</v>
+        <v>2.994490066529203</v>
       </c>
       <c r="I26" t="n">
-        <v>11.27255738214254</v>
+        <v>11.27255738214253</v>
       </c>
       <c r="J26" t="n">
-        <v>24.8166582481712</v>
+        <v>24.81665824817118</v>
       </c>
       <c r="K26" t="n">
-        <v>37.19373765900302</v>
+        <v>37.19373765900298</v>
       </c>
       <c r="L26" t="n">
-        <v>46.14212046125306</v>
+        <v>46.14212046125301</v>
       </c>
       <c r="M26" t="n">
-        <v>51.34199964793815</v>
+        <v>51.3419996479381</v>
       </c>
       <c r="N26" t="n">
-        <v>52.17276687864985</v>
+        <v>52.1727668786498</v>
       </c>
       <c r="O26" t="n">
-        <v>49.26526431802007</v>
+        <v>49.26526431802002</v>
       </c>
       <c r="P26" t="n">
-        <v>42.04676330325724</v>
+        <v>42.04676330325719</v>
       </c>
       <c r="Q26" t="n">
-        <v>31.5753681603228</v>
+        <v>31.57536816032277</v>
       </c>
       <c r="R26" t="n">
-        <v>18.36715602505703</v>
+        <v>18.36715602505701</v>
       </c>
       <c r="S26" t="n">
-        <v>6.66295055691779</v>
+        <v>6.662950556917784</v>
       </c>
       <c r="T26" t="n">
-        <v>1.279959015377186</v>
+        <v>1.279959015377184</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0233915982250542</v>
+        <v>0.02339159822505418</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1564451053459847</v>
+        <v>0.1564451053459846</v>
       </c>
       <c r="H27" t="n">
-        <v>1.510930359525695</v>
+        <v>1.510930359525693</v>
       </c>
       <c r="I27" t="n">
-        <v>5.386377530552545</v>
+        <v>5.386377530552539</v>
       </c>
       <c r="J27" t="n">
-        <v>14.78063164148183</v>
+        <v>14.78063164148181</v>
       </c>
       <c r="K27" t="n">
-        <v>25.26245369966281</v>
+        <v>25.26245369966278</v>
       </c>
       <c r="L27" t="n">
-        <v>33.96848657961831</v>
+        <v>33.96848657961827</v>
       </c>
       <c r="M27" t="n">
-        <v>39.63962164841024</v>
+        <v>39.63962164841021</v>
       </c>
       <c r="N27" t="n">
-        <v>40.68876448206819</v>
+        <v>40.68876448206815</v>
       </c>
       <c r="O27" t="n">
-        <v>37.22227030571769</v>
+        <v>37.22227030571765</v>
       </c>
       <c r="P27" t="n">
-        <v>29.87415349365563</v>
+        <v>29.8741534936556</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.9700804648664</v>
+        <v>19.97008046486638</v>
       </c>
       <c r="R27" t="n">
-        <v>9.713319786305966</v>
+        <v>9.713319786305957</v>
       </c>
       <c r="S27" t="n">
-        <v>2.90589921552739</v>
+        <v>2.905899215527387</v>
       </c>
       <c r="T27" t="n">
-        <v>0.6305835605831575</v>
+        <v>0.6305835605831568</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01029244114118321</v>
+        <v>0.0102924411411832</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1311583209903783</v>
+        <v>0.1311583209903782</v>
       </c>
       <c r="H28" t="n">
-        <v>1.166116708441728</v>
+        <v>1.166116708441727</v>
       </c>
       <c r="I28" t="n">
-        <v>3.944288416692469</v>
+        <v>3.944288416692465</v>
       </c>
       <c r="J28" t="n">
-        <v>9.272893294019745</v>
+        <v>9.272893294019736</v>
       </c>
       <c r="K28" t="n">
-        <v>15.23821220233668</v>
+        <v>15.23821220233666</v>
       </c>
       <c r="L28" t="n">
-        <v>19.49966528615134</v>
+        <v>19.49966528615132</v>
       </c>
       <c r="M28" t="n">
-        <v>20.55966298942812</v>
+        <v>20.5596629894281</v>
       </c>
       <c r="N28" t="n">
-        <v>20.07080015664581</v>
+        <v>20.0708001566458</v>
       </c>
       <c r="O28" t="n">
-        <v>18.53863249780366</v>
+        <v>18.53863249780364</v>
       </c>
       <c r="P28" t="n">
-        <v>15.86300274959993</v>
+        <v>15.86300274959991</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.98272086038522</v>
+        <v>10.98272086038521</v>
       </c>
       <c r="R28" t="n">
-        <v>5.897355051076463</v>
+        <v>5.897355051076458</v>
       </c>
       <c r="S28" t="n">
-        <v>2.285731830350501</v>
+        <v>2.285731830350499</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5604037351407072</v>
+        <v>0.5604037351407066</v>
       </c>
       <c r="U28" t="n">
-        <v>0.007154090235838825</v>
+        <v>0.007154090235838818</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2923949778131776</v>
+        <v>0.2923949778131773</v>
       </c>
       <c r="H29" t="n">
-        <v>2.994490066529206</v>
+        <v>2.994490066529203</v>
       </c>
       <c r="I29" t="n">
-        <v>11.27255738214254</v>
+        <v>11.27255738214253</v>
       </c>
       <c r="J29" t="n">
-        <v>24.8166582481712</v>
+        <v>24.81665824817118</v>
       </c>
       <c r="K29" t="n">
-        <v>37.19373765900302</v>
+        <v>37.19373765900298</v>
       </c>
       <c r="L29" t="n">
-        <v>46.14212046125306</v>
+        <v>46.14212046125301</v>
       </c>
       <c r="M29" t="n">
-        <v>51.34199964793815</v>
+        <v>51.3419996479381</v>
       </c>
       <c r="N29" t="n">
-        <v>52.17276687864985</v>
+        <v>52.1727668786498</v>
       </c>
       <c r="O29" t="n">
-        <v>49.26526431802007</v>
+        <v>49.26526431802002</v>
       </c>
       <c r="P29" t="n">
-        <v>42.04676330325724</v>
+        <v>42.04676330325719</v>
       </c>
       <c r="Q29" t="n">
-        <v>31.5753681603228</v>
+        <v>31.57536816032277</v>
       </c>
       <c r="R29" t="n">
-        <v>18.36715602505703</v>
+        <v>18.36715602505701</v>
       </c>
       <c r="S29" t="n">
-        <v>6.66295055691779</v>
+        <v>6.662950556917784</v>
       </c>
       <c r="T29" t="n">
-        <v>1.279959015377186</v>
+        <v>1.279959015377184</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0233915982250542</v>
+        <v>0.02339159822505418</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1564451053459847</v>
+        <v>0.1564451053459846</v>
       </c>
       <c r="H30" t="n">
-        <v>1.510930359525695</v>
+        <v>1.510930359525693</v>
       </c>
       <c r="I30" t="n">
-        <v>5.386377530552545</v>
+        <v>5.386377530552539</v>
       </c>
       <c r="J30" t="n">
-        <v>14.78063164148183</v>
+        <v>14.78063164148181</v>
       </c>
       <c r="K30" t="n">
-        <v>25.26245369966281</v>
+        <v>25.26245369966278</v>
       </c>
       <c r="L30" t="n">
-        <v>33.96848657961831</v>
+        <v>33.96848657961827</v>
       </c>
       <c r="M30" t="n">
-        <v>39.63962164841024</v>
+        <v>39.63962164841021</v>
       </c>
       <c r="N30" t="n">
-        <v>40.68876448206819</v>
+        <v>40.68876448206815</v>
       </c>
       <c r="O30" t="n">
-        <v>37.22227030571769</v>
+        <v>37.22227030571765</v>
       </c>
       <c r="P30" t="n">
-        <v>29.87415349365563</v>
+        <v>29.8741534936556</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.9700804648664</v>
+        <v>19.97008046486638</v>
       </c>
       <c r="R30" t="n">
-        <v>9.713319786305966</v>
+        <v>9.713319786305957</v>
       </c>
       <c r="S30" t="n">
-        <v>2.90589921552739</v>
+        <v>2.905899215527387</v>
       </c>
       <c r="T30" t="n">
-        <v>0.6305835605831575</v>
+        <v>0.6305835605831568</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01029244114118321</v>
+        <v>0.0102924411411832</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1311583209903783</v>
+        <v>0.1311583209903782</v>
       </c>
       <c r="H31" t="n">
-        <v>1.166116708441728</v>
+        <v>1.166116708441727</v>
       </c>
       <c r="I31" t="n">
-        <v>3.944288416692469</v>
+        <v>3.944288416692465</v>
       </c>
       <c r="J31" t="n">
-        <v>9.272893294019745</v>
+        <v>9.272893294019736</v>
       </c>
       <c r="K31" t="n">
-        <v>15.23821220233668</v>
+        <v>15.23821220233666</v>
       </c>
       <c r="L31" t="n">
-        <v>19.49966528615134</v>
+        <v>19.49966528615132</v>
       </c>
       <c r="M31" t="n">
-        <v>20.55966298942812</v>
+        <v>20.5596629894281</v>
       </c>
       <c r="N31" t="n">
-        <v>20.07080015664581</v>
+        <v>20.0708001566458</v>
       </c>
       <c r="O31" t="n">
-        <v>18.53863249780366</v>
+        <v>18.53863249780364</v>
       </c>
       <c r="P31" t="n">
-        <v>15.86300274959993</v>
+        <v>15.86300274959991</v>
       </c>
       <c r="Q31" t="n">
-        <v>10.98272086038522</v>
+        <v>10.98272086038521</v>
       </c>
       <c r="R31" t="n">
-        <v>5.897355051076463</v>
+        <v>5.897355051076458</v>
       </c>
       <c r="S31" t="n">
-        <v>2.285731830350501</v>
+        <v>2.285731830350499</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5604037351407072</v>
+        <v>0.5604037351407066</v>
       </c>
       <c r="U31" t="n">
-        <v>0.007154090235838825</v>
+        <v>0.007154090235838818</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2923949778131776</v>
+        <v>0.2923949778131773</v>
       </c>
       <c r="H32" t="n">
-        <v>2.994490066529206</v>
+        <v>2.994490066529203</v>
       </c>
       <c r="I32" t="n">
-        <v>11.27255738214254</v>
+        <v>11.27255738214253</v>
       </c>
       <c r="J32" t="n">
-        <v>24.8166582481712</v>
+        <v>24.81665824817118</v>
       </c>
       <c r="K32" t="n">
-        <v>37.19373765900302</v>
+        <v>37.19373765900298</v>
       </c>
       <c r="L32" t="n">
-        <v>46.14212046125306</v>
+        <v>46.14212046125301</v>
       </c>
       <c r="M32" t="n">
-        <v>51.34199964793815</v>
+        <v>51.3419996479381</v>
       </c>
       <c r="N32" t="n">
-        <v>52.17276687864985</v>
+        <v>52.1727668786498</v>
       </c>
       <c r="O32" t="n">
-        <v>49.26526431802007</v>
+        <v>49.26526431802002</v>
       </c>
       <c r="P32" t="n">
-        <v>42.04676330325724</v>
+        <v>42.04676330325719</v>
       </c>
       <c r="Q32" t="n">
-        <v>31.5753681603228</v>
+        <v>31.57536816032277</v>
       </c>
       <c r="R32" t="n">
-        <v>18.36715602505703</v>
+        <v>18.36715602505701</v>
       </c>
       <c r="S32" t="n">
-        <v>6.66295055691779</v>
+        <v>6.662950556917784</v>
       </c>
       <c r="T32" t="n">
-        <v>1.279959015377186</v>
+        <v>1.279959015377184</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0233915982250542</v>
+        <v>0.02339159822505418</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1564451053459847</v>
+        <v>0.1564451053459846</v>
       </c>
       <c r="H33" t="n">
-        <v>1.510930359525695</v>
+        <v>1.510930359525693</v>
       </c>
       <c r="I33" t="n">
-        <v>5.386377530552545</v>
+        <v>5.386377530552539</v>
       </c>
       <c r="J33" t="n">
-        <v>14.78063164148183</v>
+        <v>14.78063164148181</v>
       </c>
       <c r="K33" t="n">
-        <v>25.26245369966281</v>
+        <v>25.26245369966278</v>
       </c>
       <c r="L33" t="n">
-        <v>33.96848657961831</v>
+        <v>33.96848657961827</v>
       </c>
       <c r="M33" t="n">
-        <v>39.63962164841024</v>
+        <v>39.63962164841021</v>
       </c>
       <c r="N33" t="n">
-        <v>40.68876448206819</v>
+        <v>40.68876448206815</v>
       </c>
       <c r="O33" t="n">
-        <v>37.22227030571769</v>
+        <v>37.22227030571765</v>
       </c>
       <c r="P33" t="n">
-        <v>29.87415349365563</v>
+        <v>29.8741534936556</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.9700804648664</v>
+        <v>19.97008046486638</v>
       </c>
       <c r="R33" t="n">
-        <v>9.713319786305966</v>
+        <v>9.713319786305957</v>
       </c>
       <c r="S33" t="n">
-        <v>2.90589921552739</v>
+        <v>2.905899215527387</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6305835605831575</v>
+        <v>0.6305835605831568</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01029244114118321</v>
+        <v>0.0102924411411832</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1311583209903783</v>
+        <v>0.1311583209903782</v>
       </c>
       <c r="H34" t="n">
-        <v>1.166116708441728</v>
+        <v>1.166116708441727</v>
       </c>
       <c r="I34" t="n">
-        <v>3.944288416692469</v>
+        <v>3.944288416692465</v>
       </c>
       <c r="J34" t="n">
-        <v>9.272893294019745</v>
+        <v>9.272893294019736</v>
       </c>
       <c r="K34" t="n">
-        <v>15.23821220233668</v>
+        <v>15.23821220233666</v>
       </c>
       <c r="L34" t="n">
-        <v>19.49966528615134</v>
+        <v>19.49966528615132</v>
       </c>
       <c r="M34" t="n">
-        <v>20.55966298942812</v>
+        <v>20.5596629894281</v>
       </c>
       <c r="N34" t="n">
-        <v>20.07080015664581</v>
+        <v>20.0708001566458</v>
       </c>
       <c r="O34" t="n">
-        <v>18.53863249780366</v>
+        <v>18.53863249780364</v>
       </c>
       <c r="P34" t="n">
-        <v>15.86300274959993</v>
+        <v>15.86300274959991</v>
       </c>
       <c r="Q34" t="n">
-        <v>10.98272086038522</v>
+        <v>10.98272086038521</v>
       </c>
       <c r="R34" t="n">
-        <v>5.897355051076463</v>
+        <v>5.897355051076458</v>
       </c>
       <c r="S34" t="n">
-        <v>2.285731830350501</v>
+        <v>2.285731830350499</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5604037351407072</v>
+        <v>0.5604037351407066</v>
       </c>
       <c r="U34" t="n">
-        <v>0.007154090235838825</v>
+        <v>0.007154090235838818</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2923949778131776</v>
+        <v>0.2923949778131773</v>
       </c>
       <c r="H35" t="n">
-        <v>2.994490066529206</v>
+        <v>2.994490066529203</v>
       </c>
       <c r="I35" t="n">
-        <v>11.27255738214254</v>
+        <v>11.27255738214253</v>
       </c>
       <c r="J35" t="n">
-        <v>24.8166582481712</v>
+        <v>24.81665824817118</v>
       </c>
       <c r="K35" t="n">
-        <v>37.19373765900302</v>
+        <v>37.19373765900298</v>
       </c>
       <c r="L35" t="n">
-        <v>46.14212046125306</v>
+        <v>46.14212046125301</v>
       </c>
       <c r="M35" t="n">
-        <v>51.34199964793815</v>
+        <v>51.3419996479381</v>
       </c>
       <c r="N35" t="n">
-        <v>52.17276687864985</v>
+        <v>52.1727668786498</v>
       </c>
       <c r="O35" t="n">
-        <v>49.26526431802007</v>
+        <v>49.26526431802002</v>
       </c>
       <c r="P35" t="n">
-        <v>42.04676330325724</v>
+        <v>42.04676330325719</v>
       </c>
       <c r="Q35" t="n">
-        <v>31.5753681603228</v>
+        <v>31.57536816032277</v>
       </c>
       <c r="R35" t="n">
-        <v>18.36715602505703</v>
+        <v>18.36715602505701</v>
       </c>
       <c r="S35" t="n">
-        <v>6.66295055691779</v>
+        <v>6.662950556917784</v>
       </c>
       <c r="T35" t="n">
-        <v>1.279959015377186</v>
+        <v>1.279959015377184</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0233915982250542</v>
+        <v>0.02339159822505418</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1564451053459847</v>
+        <v>0.1564451053459846</v>
       </c>
       <c r="H36" t="n">
-        <v>1.510930359525695</v>
+        <v>1.510930359525693</v>
       </c>
       <c r="I36" t="n">
-        <v>5.386377530552545</v>
+        <v>5.386377530552539</v>
       </c>
       <c r="J36" t="n">
-        <v>14.78063164148183</v>
+        <v>14.78063164148181</v>
       </c>
       <c r="K36" t="n">
-        <v>25.26245369966281</v>
+        <v>25.26245369966278</v>
       </c>
       <c r="L36" t="n">
-        <v>33.96848657961831</v>
+        <v>33.96848657961827</v>
       </c>
       <c r="M36" t="n">
-        <v>39.63962164841024</v>
+        <v>39.63962164841021</v>
       </c>
       <c r="N36" t="n">
-        <v>40.68876448206819</v>
+        <v>40.68876448206815</v>
       </c>
       <c r="O36" t="n">
-        <v>37.22227030571769</v>
+        <v>37.22227030571765</v>
       </c>
       <c r="P36" t="n">
-        <v>29.87415349365563</v>
+        <v>29.8741534936556</v>
       </c>
       <c r="Q36" t="n">
-        <v>19.9700804648664</v>
+        <v>19.97008046486638</v>
       </c>
       <c r="R36" t="n">
-        <v>9.713319786305966</v>
+        <v>9.713319786305957</v>
       </c>
       <c r="S36" t="n">
-        <v>2.90589921552739</v>
+        <v>2.905899215527387</v>
       </c>
       <c r="T36" t="n">
-        <v>0.6305835605831575</v>
+        <v>0.6305835605831568</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01029244114118321</v>
+        <v>0.0102924411411832</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1311583209903783</v>
+        <v>0.1311583209903782</v>
       </c>
       <c r="H37" t="n">
-        <v>1.166116708441728</v>
+        <v>1.166116708441727</v>
       </c>
       <c r="I37" t="n">
-        <v>3.944288416692469</v>
+        <v>3.944288416692465</v>
       </c>
       <c r="J37" t="n">
-        <v>9.272893294019745</v>
+        <v>9.272893294019736</v>
       </c>
       <c r="K37" t="n">
-        <v>15.23821220233668</v>
+        <v>15.23821220233666</v>
       </c>
       <c r="L37" t="n">
-        <v>19.49966528615134</v>
+        <v>19.49966528615132</v>
       </c>
       <c r="M37" t="n">
-        <v>20.55966298942812</v>
+        <v>20.5596629894281</v>
       </c>
       <c r="N37" t="n">
-        <v>20.07080015664581</v>
+        <v>20.0708001566458</v>
       </c>
       <c r="O37" t="n">
-        <v>18.53863249780366</v>
+        <v>18.53863249780364</v>
       </c>
       <c r="P37" t="n">
-        <v>15.86300274959993</v>
+        <v>15.86300274959991</v>
       </c>
       <c r="Q37" t="n">
-        <v>10.98272086038522</v>
+        <v>10.98272086038521</v>
       </c>
       <c r="R37" t="n">
-        <v>5.897355051076463</v>
+        <v>5.897355051076458</v>
       </c>
       <c r="S37" t="n">
-        <v>2.285731830350501</v>
+        <v>2.285731830350499</v>
       </c>
       <c r="T37" t="n">
-        <v>0.5604037351407072</v>
+        <v>0.5604037351407066</v>
       </c>
       <c r="U37" t="n">
-        <v>0.007154090235838825</v>
+        <v>0.007154090235838818</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2923949778131776</v>
+        <v>0.2923949778131775</v>
       </c>
       <c r="H38" t="n">
-        <v>2.994490066529206</v>
+        <v>2.994490066529205</v>
       </c>
       <c r="I38" t="n">
         <v>11.27255738214254</v>
@@ -33897,22 +33897,22 @@
         <v>24.8166582481712</v>
       </c>
       <c r="K38" t="n">
-        <v>37.19373765900302</v>
+        <v>37.19373765900301</v>
       </c>
       <c r="L38" t="n">
-        <v>46.14212046125306</v>
+        <v>46.14212046125305</v>
       </c>
       <c r="M38" t="n">
         <v>51.34199964793815</v>
       </c>
       <c r="N38" t="n">
-        <v>52.17276687864985</v>
+        <v>52.17276687864984</v>
       </c>
       <c r="O38" t="n">
-        <v>49.26526431802007</v>
+        <v>49.26526431802005</v>
       </c>
       <c r="P38" t="n">
-        <v>42.04676330325724</v>
+        <v>42.04676330325723</v>
       </c>
       <c r="Q38" t="n">
         <v>31.5753681603228</v>
@@ -33924,7 +33924,7 @@
         <v>6.66295055691779</v>
       </c>
       <c r="T38" t="n">
-        <v>1.279959015377186</v>
+        <v>1.279959015377185</v>
       </c>
       <c r="U38" t="n">
         <v>0.0233915982250542</v>
@@ -33967,43 +33967,43 @@
         <v>0.1564451053459847</v>
       </c>
       <c r="H39" t="n">
-        <v>1.510930359525695</v>
+        <v>1.510930359525694</v>
       </c>
       <c r="I39" t="n">
-        <v>5.386377530552545</v>
+        <v>5.386377530552544</v>
       </c>
       <c r="J39" t="n">
         <v>14.78063164148183</v>
       </c>
       <c r="K39" t="n">
-        <v>25.26245369966281</v>
+        <v>25.2624536996628</v>
       </c>
       <c r="L39" t="n">
-        <v>33.96848657961831</v>
+        <v>33.9684865796183</v>
       </c>
       <c r="M39" t="n">
-        <v>39.63962164841024</v>
+        <v>39.63962164841023</v>
       </c>
       <c r="N39" t="n">
         <v>40.68876448206819</v>
       </c>
       <c r="O39" t="n">
-        <v>37.22227030571769</v>
+        <v>37.22227030571768</v>
       </c>
       <c r="P39" t="n">
-        <v>29.87415349365563</v>
+        <v>29.87415349365562</v>
       </c>
       <c r="Q39" t="n">
         <v>19.9700804648664</v>
       </c>
       <c r="R39" t="n">
-        <v>9.713319786305966</v>
+        <v>9.713319786305965</v>
       </c>
       <c r="S39" t="n">
-        <v>2.90589921552739</v>
+        <v>2.905899215527389</v>
       </c>
       <c r="T39" t="n">
-        <v>0.6305835605831575</v>
+        <v>0.6305835605831573</v>
       </c>
       <c r="U39" t="n">
         <v>0.01029244114118321</v>
@@ -34049,19 +34049,19 @@
         <v>1.166116708441728</v>
       </c>
       <c r="I40" t="n">
-        <v>3.944288416692469</v>
+        <v>3.944288416692468</v>
       </c>
       <c r="J40" t="n">
-        <v>9.272893294019745</v>
+        <v>9.272893294019743</v>
       </c>
       <c r="K40" t="n">
-        <v>15.23821220233668</v>
+        <v>15.23821220233667</v>
       </c>
       <c r="L40" t="n">
-        <v>19.49966528615134</v>
+        <v>19.49966528615133</v>
       </c>
       <c r="M40" t="n">
-        <v>20.55966298942812</v>
+        <v>20.55966298942811</v>
       </c>
       <c r="N40" t="n">
         <v>20.07080015664581</v>
@@ -34076,16 +34076,16 @@
         <v>10.98272086038522</v>
       </c>
       <c r="R40" t="n">
-        <v>5.897355051076463</v>
+        <v>5.897355051076462</v>
       </c>
       <c r="S40" t="n">
         <v>2.285731830350501</v>
       </c>
       <c r="T40" t="n">
-        <v>0.5604037351407072</v>
+        <v>0.5604037351407071</v>
       </c>
       <c r="U40" t="n">
-        <v>0.007154090235838825</v>
+        <v>0.007154090235838823</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2923949778131776</v>
+        <v>0.2923949778131775</v>
       </c>
       <c r="H41" t="n">
-        <v>2.994490066529206</v>
+        <v>2.994490066529205</v>
       </c>
       <c r="I41" t="n">
         <v>11.27255738214254</v>
@@ -34134,22 +34134,22 @@
         <v>24.8166582481712</v>
       </c>
       <c r="K41" t="n">
-        <v>37.19373765900302</v>
+        <v>37.19373765900301</v>
       </c>
       <c r="L41" t="n">
-        <v>46.14212046125306</v>
+        <v>46.14212046125305</v>
       </c>
       <c r="M41" t="n">
         <v>51.34199964793815</v>
       </c>
       <c r="N41" t="n">
-        <v>52.17276687864985</v>
+        <v>52.17276687864984</v>
       </c>
       <c r="O41" t="n">
-        <v>49.26526431802007</v>
+        <v>49.26526431802005</v>
       </c>
       <c r="P41" t="n">
-        <v>42.04676330325724</v>
+        <v>42.04676330325723</v>
       </c>
       <c r="Q41" t="n">
         <v>31.5753681603228</v>
@@ -34161,7 +34161,7 @@
         <v>6.66295055691779</v>
       </c>
       <c r="T41" t="n">
-        <v>1.279959015377186</v>
+        <v>1.279959015377185</v>
       </c>
       <c r="U41" t="n">
         <v>0.0233915982250542</v>
@@ -34204,43 +34204,43 @@
         <v>0.1564451053459847</v>
       </c>
       <c r="H42" t="n">
-        <v>1.510930359525695</v>
+        <v>1.510930359525694</v>
       </c>
       <c r="I42" t="n">
-        <v>5.386377530552545</v>
+        <v>5.386377530552544</v>
       </c>
       <c r="J42" t="n">
         <v>14.78063164148183</v>
       </c>
       <c r="K42" t="n">
-        <v>25.26245369966281</v>
+        <v>25.2624536996628</v>
       </c>
       <c r="L42" t="n">
-        <v>33.96848657961831</v>
+        <v>33.9684865796183</v>
       </c>
       <c r="M42" t="n">
-        <v>39.63962164841024</v>
+        <v>39.63962164841023</v>
       </c>
       <c r="N42" t="n">
         <v>40.68876448206819</v>
       </c>
       <c r="O42" t="n">
-        <v>37.22227030571769</v>
+        <v>37.22227030571768</v>
       </c>
       <c r="P42" t="n">
-        <v>29.87415349365563</v>
+        <v>29.87415349365562</v>
       </c>
       <c r="Q42" t="n">
         <v>19.9700804648664</v>
       </c>
       <c r="R42" t="n">
-        <v>9.713319786305966</v>
+        <v>9.713319786305965</v>
       </c>
       <c r="S42" t="n">
-        <v>2.90589921552739</v>
+        <v>2.905899215527389</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6305835605831575</v>
+        <v>0.6305835605831573</v>
       </c>
       <c r="U42" t="n">
         <v>0.01029244114118321</v>
@@ -34286,19 +34286,19 @@
         <v>1.166116708441728</v>
       </c>
       <c r="I43" t="n">
-        <v>3.944288416692469</v>
+        <v>3.944288416692468</v>
       </c>
       <c r="J43" t="n">
-        <v>9.272893294019745</v>
+        <v>9.272893294019743</v>
       </c>
       <c r="K43" t="n">
-        <v>15.23821220233668</v>
+        <v>15.23821220233667</v>
       </c>
       <c r="L43" t="n">
-        <v>19.49966528615134</v>
+        <v>19.49966528615133</v>
       </c>
       <c r="M43" t="n">
-        <v>20.55966298942812</v>
+        <v>20.55966298942811</v>
       </c>
       <c r="N43" t="n">
         <v>20.07080015664581</v>
@@ -34313,16 +34313,16 @@
         <v>10.98272086038522</v>
       </c>
       <c r="R43" t="n">
-        <v>5.897355051076463</v>
+        <v>5.897355051076462</v>
       </c>
       <c r="S43" t="n">
         <v>2.285731830350501</v>
       </c>
       <c r="T43" t="n">
-        <v>0.5604037351407072</v>
+        <v>0.5604037351407071</v>
       </c>
       <c r="U43" t="n">
-        <v>0.007154090235838825</v>
+        <v>0.007154090235838823</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2923949778131776</v>
+        <v>0.2923949778131775</v>
       </c>
       <c r="H44" t="n">
-        <v>2.994490066529206</v>
+        <v>2.994490066529205</v>
       </c>
       <c r="I44" t="n">
         <v>11.27255738214254</v>
@@ -34371,22 +34371,22 @@
         <v>24.8166582481712</v>
       </c>
       <c r="K44" t="n">
-        <v>37.19373765900302</v>
+        <v>37.19373765900301</v>
       </c>
       <c r="L44" t="n">
-        <v>46.14212046125306</v>
+        <v>46.14212046125305</v>
       </c>
       <c r="M44" t="n">
         <v>51.34199964793815</v>
       </c>
       <c r="N44" t="n">
-        <v>52.17276687864985</v>
+        <v>52.17276687864984</v>
       </c>
       <c r="O44" t="n">
-        <v>49.26526431802007</v>
+        <v>49.26526431802005</v>
       </c>
       <c r="P44" t="n">
-        <v>42.04676330325724</v>
+        <v>42.04676330325723</v>
       </c>
       <c r="Q44" t="n">
         <v>31.5753681603228</v>
@@ -34398,7 +34398,7 @@
         <v>6.66295055691779</v>
       </c>
       <c r="T44" t="n">
-        <v>1.279959015377186</v>
+        <v>1.279959015377185</v>
       </c>
       <c r="U44" t="n">
         <v>0.0233915982250542</v>
@@ -34441,43 +34441,43 @@
         <v>0.1564451053459847</v>
       </c>
       <c r="H45" t="n">
-        <v>1.510930359525695</v>
+        <v>1.510930359525694</v>
       </c>
       <c r="I45" t="n">
-        <v>5.386377530552545</v>
+        <v>5.386377530552544</v>
       </c>
       <c r="J45" t="n">
         <v>14.78063164148183</v>
       </c>
       <c r="K45" t="n">
-        <v>25.26245369966281</v>
+        <v>25.2624536996628</v>
       </c>
       <c r="L45" t="n">
-        <v>33.96848657961831</v>
+        <v>33.9684865796183</v>
       </c>
       <c r="M45" t="n">
-        <v>39.63962164841024</v>
+        <v>39.63962164841023</v>
       </c>
       <c r="N45" t="n">
         <v>40.68876448206819</v>
       </c>
       <c r="O45" t="n">
-        <v>37.22227030571769</v>
+        <v>37.22227030571768</v>
       </c>
       <c r="P45" t="n">
-        <v>29.87415349365563</v>
+        <v>29.87415349365562</v>
       </c>
       <c r="Q45" t="n">
         <v>19.9700804648664</v>
       </c>
       <c r="R45" t="n">
-        <v>9.713319786305966</v>
+        <v>9.713319786305965</v>
       </c>
       <c r="S45" t="n">
-        <v>2.90589921552739</v>
+        <v>2.905899215527389</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6305835605831575</v>
+        <v>0.6305835605831573</v>
       </c>
       <c r="U45" t="n">
         <v>0.01029244114118321</v>
@@ -34523,19 +34523,19 @@
         <v>1.166116708441728</v>
       </c>
       <c r="I46" t="n">
-        <v>3.944288416692469</v>
+        <v>3.944288416692468</v>
       </c>
       <c r="J46" t="n">
-        <v>9.272893294019745</v>
+        <v>9.272893294019743</v>
       </c>
       <c r="K46" t="n">
-        <v>15.23821220233668</v>
+        <v>15.23821220233667</v>
       </c>
       <c r="L46" t="n">
-        <v>19.49966528615134</v>
+        <v>19.49966528615133</v>
       </c>
       <c r="M46" t="n">
-        <v>20.55966298942812</v>
+        <v>20.55966298942811</v>
       </c>
       <c r="N46" t="n">
         <v>20.07080015664581</v>
@@ -34550,16 +34550,16 @@
         <v>10.98272086038522</v>
       </c>
       <c r="R46" t="n">
-        <v>5.897355051076463</v>
+        <v>5.897355051076462</v>
       </c>
       <c r="S46" t="n">
         <v>2.285731830350501</v>
       </c>
       <c r="T46" t="n">
-        <v>0.5604037351407072</v>
+        <v>0.5604037351407071</v>
       </c>
       <c r="U46" t="n">
-        <v>0.007154090235838825</v>
+        <v>0.007154090235838823</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="O2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>74.55874088122788</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="L3" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>229.9609751381512</v>
@@ -34938,13 +34938,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
+        <v>117.8070290083198</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L5" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>229.9609751381512</v>
@@ -34953,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>74.55874088122776</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="M6" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="O6" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>63.35896009881473</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>286.2011804008418</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>170.9275399742602</v>
+        <v>170.9275399742601</v>
       </c>
       <c r="K11" t="n">
-        <v>399.8021780907827</v>
+        <v>399.8021780907825</v>
       </c>
       <c r="L11" t="n">
-        <v>544.445445429464</v>
+        <v>544.4454454294639</v>
       </c>
       <c r="M11" t="n">
-        <v>602.8580602990296</v>
+        <v>602.8580602990295</v>
       </c>
       <c r="N11" t="n">
-        <v>585.315477623561</v>
+        <v>585.3154776235608</v>
       </c>
       <c r="O11" t="n">
-        <v>493.7497096638064</v>
+        <v>493.7497096638062</v>
       </c>
       <c r="P11" t="n">
-        <v>393.751300809845</v>
+        <v>393.7513008098448</v>
       </c>
       <c r="Q11" t="n">
-        <v>218.2880551713819</v>
+        <v>218.2880551713818</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>73.53324308018603</v>
+        <v>129.0381894391862</v>
       </c>
       <c r="K12" t="n">
-        <v>348.2312881059521</v>
+        <v>348.231288105952</v>
       </c>
       <c r="L12" t="n">
-        <v>522.4190783960963</v>
+        <v>522.4190783960962</v>
       </c>
       <c r="M12" t="n">
-        <v>673.7523990490982</v>
+        <v>66.08307487589664</v>
       </c>
       <c r="N12" t="n">
-        <v>703.0907556038451</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>558.9599294885268</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>439.5927077526429</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>256.7024961768769</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>67.25740080272159</v>
+        <v>67.25740080272156</v>
       </c>
       <c r="K13" t="n">
-        <v>185.9588648700076</v>
+        <v>185.9588648700075</v>
       </c>
       <c r="L13" t="n">
-        <v>273.3441550890323</v>
+        <v>273.3441550890322</v>
       </c>
       <c r="M13" t="n">
-        <v>296.791969423081</v>
+        <v>296.7919694230809</v>
       </c>
       <c r="N13" t="n">
         <v>293.1698295124655</v>
       </c>
       <c r="O13" t="n">
-        <v>270.9458770157434</v>
+        <v>270.9458770157433</v>
       </c>
       <c r="P13" t="n">
         <v>225.009033868419</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>170.9275399742602</v>
+        <v>170.9275399742601</v>
       </c>
       <c r="K14" t="n">
-        <v>399.8021780907827</v>
+        <v>399.8021780907825</v>
       </c>
       <c r="L14" t="n">
-        <v>544.445445429464</v>
+        <v>544.4454454294639</v>
       </c>
       <c r="M14" t="n">
-        <v>602.8580602990296</v>
+        <v>602.8580602990295</v>
       </c>
       <c r="N14" t="n">
-        <v>585.315477623561</v>
+        <v>585.3154776235609</v>
       </c>
       <c r="O14" t="n">
-        <v>493.7497096638064</v>
+        <v>493.7497096638062</v>
       </c>
       <c r="P14" t="n">
-        <v>393.751300809845</v>
+        <v>393.7513008098448</v>
       </c>
       <c r="Q14" t="n">
         <v>218.2880551713819</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>348.231288105952</v>
       </c>
       <c r="L15" t="n">
         <v>522.4190783960963</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>673.7523990490982</v>
       </c>
       <c r="N15" t="n">
-        <v>703.0907556038451</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>558.9599294885268</v>
+        <v>80.32879475451129</v>
       </c>
       <c r="P15" t="n">
-        <v>279.8545045698322</v>
+        <v>439.5927077526429</v>
       </c>
       <c r="Q15" t="n">
         <v>256.702496176877</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>67.25740080272159</v>
+        <v>67.25740080272158</v>
       </c>
       <c r="K16" t="n">
-        <v>185.9588648700076</v>
+        <v>185.9588648700075</v>
       </c>
       <c r="L16" t="n">
-        <v>273.3441550890323</v>
+        <v>273.3441550890322</v>
       </c>
       <c r="M16" t="n">
         <v>296.791969423081</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>170.9275399742602</v>
+        <v>170.9275399742601</v>
       </c>
       <c r="K17" t="n">
-        <v>399.8021780907827</v>
+        <v>399.8021780907825</v>
       </c>
       <c r="L17" t="n">
-        <v>544.445445429464</v>
+        <v>544.4454454294639</v>
       </c>
       <c r="M17" t="n">
-        <v>602.8580602990296</v>
+        <v>602.8580602990295</v>
       </c>
       <c r="N17" t="n">
-        <v>585.315477623561</v>
+        <v>585.3154776235609</v>
       </c>
       <c r="O17" t="n">
-        <v>493.7497096638064</v>
+        <v>493.7497096638062</v>
       </c>
       <c r="P17" t="n">
-        <v>393.751300809845</v>
+        <v>393.7513008098448</v>
       </c>
       <c r="Q17" t="n">
         <v>218.2880551713819</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>129.0381894391863</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>348.2312881059521</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>385.2236800937076</v>
       </c>
       <c r="M18" t="n">
-        <v>673.7523990490984</v>
+        <v>673.7523990490982</v>
       </c>
       <c r="N18" t="n">
-        <v>473.7096837114211</v>
+        <v>703.090755603845</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>558.9599294885268</v>
       </c>
       <c r="P18" t="n">
-        <v>439.5927077526429</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>256.702496176877</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>67.25740080272159</v>
+        <v>67.25740080272158</v>
       </c>
       <c r="K19" t="n">
-        <v>185.9588648700076</v>
+        <v>185.9588648700075</v>
       </c>
       <c r="L19" t="n">
-        <v>273.3441550890323</v>
+        <v>273.3441550890322</v>
       </c>
       <c r="M19" t="n">
-        <v>296.791969423081</v>
+        <v>296.7919694230809</v>
       </c>
       <c r="N19" t="n">
         <v>293.1698295124655</v>
       </c>
       <c r="O19" t="n">
-        <v>270.9458770157435</v>
+        <v>270.9458770157434</v>
       </c>
       <c r="P19" t="n">
         <v>225.009033868419</v>
@@ -36123,22 +36123,22 @@
         <v>170.9275399742602</v>
       </c>
       <c r="K20" t="n">
-        <v>399.8021780907827</v>
+        <v>399.8021780907826</v>
       </c>
       <c r="L20" t="n">
-        <v>544.445445429464</v>
+        <v>544.4454454294639</v>
       </c>
       <c r="M20" t="n">
         <v>602.8580602990296</v>
       </c>
       <c r="N20" t="n">
-        <v>585.315477623561</v>
+        <v>585.3154776235609</v>
       </c>
       <c r="O20" t="n">
-        <v>493.7497096638064</v>
+        <v>493.7497096638063</v>
       </c>
       <c r="P20" t="n">
-        <v>393.751300809845</v>
+        <v>393.7513008098449</v>
       </c>
       <c r="Q20" t="n">
         <v>218.2880551713819</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>129.0381894391862</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>348.2312881059521</v>
       </c>
       <c r="L21" t="n">
         <v>522.4190783960963</v>
       </c>
       <c r="M21" t="n">
-        <v>543.3525524210347</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>703.090755603845</v>
       </c>
       <c r="O21" t="n">
-        <v>558.9599294885268</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>439.5927077526429</v>
       </c>
       <c r="Q21" t="n">
-        <v>256.702496176877</v>
+        <v>178.6547449374551</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>67.25740080272159</v>
+        <v>67.25740080272158</v>
       </c>
       <c r="K22" t="n">
-        <v>185.9588648700076</v>
+        <v>185.9588648700075</v>
       </c>
       <c r="L22" t="n">
-        <v>273.3441550890323</v>
+        <v>273.3441550890322</v>
       </c>
       <c r="M22" t="n">
         <v>296.791969423081</v>
       </c>
       <c r="N22" t="n">
-        <v>293.1698295124655</v>
+        <v>293.1698295124656</v>
       </c>
       <c r="O22" t="n">
-        <v>270.9458770157435</v>
+        <v>270.9458770157434</v>
       </c>
       <c r="P22" t="n">
         <v>225.009033868419</v>
@@ -36360,7 +36360,7 @@
         <v>170.9275399742602</v>
       </c>
       <c r="K23" t="n">
-        <v>399.8021780907827</v>
+        <v>399.8021780907826</v>
       </c>
       <c r="L23" t="n">
         <v>544.445445429464</v>
@@ -36369,13 +36369,13 @@
         <v>602.8580602990296</v>
       </c>
       <c r="N23" t="n">
-        <v>585.315477623561</v>
+        <v>585.3154776235609</v>
       </c>
       <c r="O23" t="n">
-        <v>493.7497096638064</v>
+        <v>493.7497096638063</v>
       </c>
       <c r="P23" t="n">
-        <v>393.751300809845</v>
+        <v>393.7513008098449</v>
       </c>
       <c r="Q23" t="n">
         <v>218.2880551713819</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>129.0381894391863</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>348.2312881059521</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.4190783960963</v>
       </c>
       <c r="M24" t="n">
-        <v>233.6426857740997</v>
+        <v>195.1212643150826</v>
       </c>
       <c r="N24" t="n">
-        <v>703.0907556038451</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>558.9599294885268</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>67.25740080272165</v>
+        <v>67.25740080272158</v>
       </c>
       <c r="K25" t="n">
-        <v>185.9588648700076</v>
+        <v>185.9588648700075</v>
       </c>
       <c r="L25" t="n">
-        <v>273.3441550890323</v>
+        <v>273.3441550890322</v>
       </c>
       <c r="M25" t="n">
         <v>296.791969423081</v>
@@ -36530,7 +36530,7 @@
         <v>293.1698295124655</v>
       </c>
       <c r="O25" t="n">
-        <v>270.9458770157435</v>
+        <v>270.9458770157434</v>
       </c>
       <c r="P25" t="n">
         <v>225.009033868419</v>
@@ -36597,7 +36597,7 @@
         <v>170.9275399742602</v>
       </c>
       <c r="K26" t="n">
-        <v>399.8021780907827</v>
+        <v>399.8021780907826</v>
       </c>
       <c r="L26" t="n">
         <v>544.445445429464</v>
@@ -36606,13 +36606,13 @@
         <v>602.8580602990296</v>
       </c>
       <c r="N26" t="n">
-        <v>585.315477623561</v>
+        <v>585.3154776235609</v>
       </c>
       <c r="O26" t="n">
-        <v>493.7497096638064</v>
+        <v>493.7497096638063</v>
       </c>
       <c r="P26" t="n">
-        <v>393.751300809845</v>
+        <v>393.7513008098449</v>
       </c>
       <c r="Q26" t="n">
         <v>218.2880551713819</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>129.0381894391863</v>
+        <v>129.0381894391862</v>
       </c>
       <c r="K27" t="n">
-        <v>348.2312881059521</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>210.211635860219</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>673.7523990490984</v>
+        <v>673.7523990490982</v>
       </c>
       <c r="N27" t="n">
-        <v>703.0907556038451</v>
+        <v>703.090755603845</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>558.4429239661712</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>67.25740080272159</v>
+        <v>67.25740080272158</v>
       </c>
       <c r="K28" t="n">
-        <v>185.9588648700076</v>
+        <v>185.9588648700075</v>
       </c>
       <c r="L28" t="n">
-        <v>273.3441550890323</v>
+        <v>273.3441550890322</v>
       </c>
       <c r="M28" t="n">
         <v>296.791969423081</v>
@@ -36767,7 +36767,7 @@
         <v>293.1698295124655</v>
       </c>
       <c r="O28" t="n">
-        <v>270.9458770157435</v>
+        <v>270.9458770157434</v>
       </c>
       <c r="P28" t="n">
         <v>225.009033868419</v>
@@ -36834,7 +36834,7 @@
         <v>170.9275399742602</v>
       </c>
       <c r="K29" t="n">
-        <v>399.8021780907827</v>
+        <v>399.8021780907826</v>
       </c>
       <c r="L29" t="n">
         <v>544.445445429464</v>
@@ -36843,13 +36843,13 @@
         <v>602.8580602990296</v>
       </c>
       <c r="N29" t="n">
-        <v>585.315477623561</v>
+        <v>585.3154776235609</v>
       </c>
       <c r="O29" t="n">
-        <v>493.7497096638064</v>
+        <v>493.7497096638063</v>
       </c>
       <c r="P29" t="n">
-        <v>393.751300809845</v>
+        <v>393.7513008098449</v>
       </c>
       <c r="Q29" t="n">
         <v>218.2880551713819</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>129.0381894391863</v>
+        <v>129.0381894391862</v>
       </c>
       <c r="K30" t="n">
         <v>348.2312881059521</v>
@@ -36919,10 +36919,10 @@
         <v>522.4190783960963</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>66.08307487589619</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>558.9599294885268</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.25740080272159</v>
+        <v>67.25740080272161</v>
       </c>
       <c r="K31" t="n">
         <v>185.9588648700076</v>
@@ -37004,7 +37004,7 @@
         <v>293.1698295124655</v>
       </c>
       <c r="O31" t="n">
-        <v>270.9458770157435</v>
+        <v>270.9458770157434</v>
       </c>
       <c r="P31" t="n">
         <v>225.009033868419</v>
@@ -37071,7 +37071,7 @@
         <v>170.9275399742602</v>
       </c>
       <c r="K32" t="n">
-        <v>399.8021780907827</v>
+        <v>399.8021780907826</v>
       </c>
       <c r="L32" t="n">
         <v>544.445445429464</v>
@@ -37080,13 +37080,13 @@
         <v>602.8580602990296</v>
       </c>
       <c r="N32" t="n">
-        <v>585.315477623561</v>
+        <v>585.3154776235609</v>
       </c>
       <c r="O32" t="n">
-        <v>493.7497096638064</v>
+        <v>493.7497096638063</v>
       </c>
       <c r="P32" t="n">
-        <v>393.751300809845</v>
+        <v>393.7513008098449</v>
       </c>
       <c r="Q32" t="n">
         <v>218.2880551713819</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.44958710733381</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>348.2312881059521</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>385.2236800937076</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>673.7523990490982</v>
       </c>
       <c r="N33" t="n">
-        <v>703.0907556038451</v>
+        <v>703.090755603845</v>
       </c>
       <c r="O33" t="n">
         <v>558.9599294885268</v>
       </c>
       <c r="P33" t="n">
-        <v>439.5927077526429</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>256.702496176877</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>67.25740080272158</v>
       </c>
       <c r="K34" t="n">
-        <v>185.9588648700076</v>
+        <v>185.9588648700075</v>
       </c>
       <c r="L34" t="n">
         <v>273.3441550890322</v>
@@ -37308,7 +37308,7 @@
         <v>170.9275399742602</v>
       </c>
       <c r="K35" t="n">
-        <v>399.8021780907827</v>
+        <v>399.8021780907826</v>
       </c>
       <c r="L35" t="n">
         <v>544.445445429464</v>
@@ -37317,13 +37317,13 @@
         <v>602.8580602990296</v>
       </c>
       <c r="N35" t="n">
-        <v>585.315477623561</v>
+        <v>585.3154776235609</v>
       </c>
       <c r="O35" t="n">
-        <v>493.7497096638064</v>
+        <v>493.7497096638063</v>
       </c>
       <c r="P35" t="n">
-        <v>393.751300809845</v>
+        <v>393.7513008098449</v>
       </c>
       <c r="Q35" t="n">
         <v>218.2880551713819</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>129.0381894391863</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>348.2312881059521</v>
       </c>
       <c r="L36" t="n">
-        <v>262.9810423288465</v>
+        <v>522.4190783960963</v>
       </c>
       <c r="M36" t="n">
-        <v>673.7523990490984</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>703.090755603845</v>
       </c>
       <c r="O36" t="n">
         <v>558.9599294885268</v>
       </c>
       <c r="P36" t="n">
-        <v>439.5927077526429</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>256.702496176877</v>
+        <v>188.3257126407576</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>67.25740080272158</v>
+        <v>67.25740080272156</v>
       </c>
       <c r="K37" t="n">
-        <v>185.9588648700076</v>
+        <v>185.9588648700075</v>
       </c>
       <c r="L37" t="n">
-        <v>273.3441550890323</v>
+        <v>273.3441550890322</v>
       </c>
       <c r="M37" t="n">
         <v>296.791969423081</v>
       </c>
       <c r="N37" t="n">
-        <v>293.1698295124655</v>
+        <v>293.1698295124656</v>
       </c>
       <c r="O37" t="n">
-        <v>270.9458770157435</v>
+        <v>270.9458770157434</v>
       </c>
       <c r="P37" t="n">
         <v>225.009033868419</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.3026495488135</v>
       </c>
       <c r="L39" t="n">
         <v>522.4190783960963</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>673.7523990490982</v>
       </c>
       <c r="N39" t="n">
-        <v>703.0907556038451</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>558.9599294885268</v>
       </c>
       <c r="P39" t="n">
-        <v>279.8545045698322</v>
+        <v>439.5927077526429</v>
       </c>
       <c r="Q39" t="n">
-        <v>256.702496176877</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>67.25740080272165</v>
+        <v>67.25740080272158</v>
       </c>
       <c r="K40" t="n">
         <v>185.9588648700076</v>
@@ -37712,10 +37712,10 @@
         <v>296.791969423081</v>
       </c>
       <c r="N40" t="n">
-        <v>293.1698295124655</v>
+        <v>293.1698295124656</v>
       </c>
       <c r="O40" t="n">
-        <v>270.9458770157435</v>
+        <v>270.9458770157434</v>
       </c>
       <c r="P40" t="n">
         <v>225.009033868419</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>129.0381894391863</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>348.2312881059521</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>522.4190783960963</v>
+        <v>385.2236800937076</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>673.7523990490982</v>
       </c>
       <c r="N42" t="n">
-        <v>66.08307487589802</v>
+        <v>703.0907556038451</v>
       </c>
       <c r="O42" t="n">
         <v>558.9599294885268</v>
       </c>
       <c r="P42" t="n">
-        <v>439.5927077526429</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>256.702496176877</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.89986988914666</v>
+        <v>97.89986988914664</v>
       </c>
       <c r="L43" t="n">
         <v>185.2851601081713</v>
@@ -38025,7 +38025,7 @@
         <v>544.445445429464</v>
       </c>
       <c r="M44" t="n">
-        <v>602.8580602990295</v>
+        <v>602.8580602990296</v>
       </c>
       <c r="N44" t="n">
         <v>585.315477623561</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>80.32879475451267</v>
+        <v>129.0381894391863</v>
       </c>
       <c r="K45" t="n">
         <v>348.2312881059521</v>
@@ -38104,13 +38104,13 @@
         <v>522.4190783960963</v>
       </c>
       <c r="M45" t="n">
-        <v>673.7523990490984</v>
+        <v>66.08307487589619</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>558.9599294885268</v>
       </c>
       <c r="P45" t="n">
         <v>439.5927077526429</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.89986988914666</v>
+        <v>97.89986988914664</v>
       </c>
       <c r="L46" t="n">
         <v>185.2851601081713</v>
